--- a/01_Preprocessing/diabetes_app.xlsx
+++ b/01_Preprocessing/diabetes_app.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C2">
-        <v>14.2580645168</v>
+        <v>0.7323943661971821</v>
       </c>
       <c r="D2">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E2">
-        <v>4.680851064000001</v>
+        <v>-2.363636363636366</v>
       </c>
       <c r="F2">
-        <v>1.35989011</v>
+        <v>-7.572115384615385</v>
       </c>
       <c r="G2">
-        <v>2.097186701</v>
+        <v>-6.646216768916153</v>
       </c>
       <c r="H2">
-        <v>0.626388272</v>
+        <v>-8.884598884598883</v>
       </c>
       <c r="I2">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C3">
-        <v>24.6580645168</v>
+        <v>23.43661971830986</v>
       </c>
       <c r="D3">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E3">
-        <v>1.70212766</v>
+        <v>-7.454545454545456</v>
       </c>
       <c r="F3">
-        <v>1.565934066</v>
+        <v>-7.211538461538463</v>
       </c>
       <c r="G3">
-        <v>3.248081841</v>
+        <v>-4.805725971370141</v>
       </c>
       <c r="H3">
-        <v>0.981785873</v>
+        <v>-8.198198198198197</v>
       </c>
       <c r="I3">
-        <v>2.166666667</v>
+        <v>-3.809523809523809</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.0588235296</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>15.4322580646</v>
+        <v>3.295774647887325</v>
       </c>
       <c r="D4">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E4">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F4">
-        <v>1.291208791</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="G4">
-        <v>4.833759591</v>
+        <v>-2.269938650306744</v>
       </c>
       <c r="H4">
-        <v>0.333185251</v>
+        <v>-9.45087945087945</v>
       </c>
       <c r="I4">
-        <v>3.666666667</v>
+        <v>0.4761904761904745</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C5">
-        <v>10.9032258062</v>
+        <v>-6.591549295774651</v>
       </c>
       <c r="D5">
-        <v>3.913043478000001</v>
+        <v>-1.953488372093024</v>
       </c>
       <c r="E5">
-        <v>0.212765957</v>
+        <v>-10</v>
       </c>
       <c r="F5">
-        <v>2.28021978</v>
+        <v>-5.961538461538463</v>
       </c>
       <c r="G5">
-        <v>1.841432225</v>
+        <v>-7.05521472392638</v>
       </c>
       <c r="H5">
-        <v>3.860506442</v>
+        <v>-2.638352638352637</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -548,28 +548,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C6">
-        <v>17.9483870956</v>
+        <v>8.788732394366191</v>
       </c>
       <c r="D6">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E6">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F6">
-        <v>2.664835165</v>
+        <v>-5.28846153846154</v>
       </c>
       <c r="G6">
-        <v>6.317135550000001</v>
+        <v>0.1022494887525593</v>
       </c>
       <c r="H6">
-        <v>1.945801866</v>
+        <v>-6.336336336336334</v>
       </c>
       <c r="I6">
-        <v>2.5</v>
+        <v>-2.857142857142858</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -577,28 +577,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C7">
-        <v>13.2516129044</v>
+        <v>-1.464788732394364</v>
       </c>
       <c r="D7">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E7">
-        <v>1.70212766</v>
+        <v>-7.454545454545456</v>
       </c>
       <c r="F7">
-        <v>2.197802198</v>
+        <v>-6.105769230769232</v>
       </c>
       <c r="G7">
-        <v>3.529411765</v>
+        <v>-4.355828220858893</v>
       </c>
       <c r="H7">
-        <v>1.621501555</v>
+        <v>-6.962676962676962</v>
       </c>
       <c r="I7">
-        <v>2.166666667</v>
+        <v>-3.809523809523809</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -606,28 +606,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C8">
-        <v>19.122580646</v>
+        <v>11.35211267605634</v>
       </c>
       <c r="D8">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E8">
-        <v>4.893617021</v>
+        <v>-2.000000000000002</v>
       </c>
       <c r="F8">
-        <v>4.285714286</v>
+        <v>-2.451923076923077</v>
       </c>
       <c r="G8">
-        <v>4.42455243</v>
+        <v>-2.924335378323104</v>
       </c>
       <c r="H8">
-        <v>1.181697024</v>
+        <v>-7.812097812097811</v>
       </c>
       <c r="I8">
-        <v>2.333333333</v>
+        <v>-3.333333333333335</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -635,28 +635,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.823529412</v>
+        <v>-1.6</v>
       </c>
       <c r="C9">
-        <v>15.0967741938</v>
+        <v>2.563380281690143</v>
       </c>
       <c r="D9">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E9">
-        <v>6.382978723</v>
+        <v>0.5454545454545445</v>
       </c>
       <c r="F9">
-        <v>4.862637363</v>
+        <v>-1.442307692307693</v>
       </c>
       <c r="G9">
-        <v>7.16112532</v>
+        <v>1.451942740286305</v>
       </c>
       <c r="H9">
-        <v>0.7107952019999999</v>
+        <v>-8.721578721578719</v>
       </c>
       <c r="I9">
-        <v>4.166666667</v>
+        <v>1.904761904761902</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -664,28 +664,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.7058823528</v>
+        <v>2.666666666666666</v>
       </c>
       <c r="C10">
-        <v>19.6258064522</v>
+        <v>12.45070422535211</v>
       </c>
       <c r="D10">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E10">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F10">
-        <v>1.593406593</v>
+        <v>-7.16346153846154</v>
       </c>
       <c r="G10">
-        <v>1.867007673</v>
+        <v>-7.014314928425356</v>
       </c>
       <c r="H10">
-        <v>1.101732563</v>
+        <v>-7.966537966537965</v>
       </c>
       <c r="I10">
-        <v>4.333333333000001</v>
+        <v>2.380952380952381</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -693,28 +693,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C11">
-        <v>7.212903224800001</v>
+        <v>-14.64788732394367</v>
       </c>
       <c r="D11">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E11">
-        <v>5.744680851</v>
+        <v>-0.5454545454545467</v>
       </c>
       <c r="F11">
-        <v>0.8379120880000001</v>
+        <v>-8.485576923076923</v>
       </c>
       <c r="G11">
-        <v>4.961636829</v>
+        <v>-2.065439672801632</v>
       </c>
       <c r="H11">
-        <v>1.434917814</v>
+        <v>-7.323037323037322</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C12">
-        <v>12.916129031</v>
+        <v>-2.197183098591552</v>
       </c>
       <c r="D12">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E12">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F12">
-        <v>1.085164835</v>
+        <v>-8.052884615384617</v>
       </c>
       <c r="G12">
-        <v>5.345268542</v>
+        <v>-1.451942740286294</v>
       </c>
       <c r="H12">
-        <v>3.589515771</v>
+        <v>-3.161733161733161</v>
       </c>
       <c r="I12">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.2352941176</v>
+        <v>1.6</v>
       </c>
       <c r="C13">
-        <v>16.9419354832</v>
+        <v>6.591549295774644</v>
       </c>
       <c r="D13">
-        <v>7.565217391199999</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="E13">
-        <v>5.744680851</v>
+        <v>-0.5454545454545467</v>
       </c>
       <c r="F13">
-        <v>2.046703297</v>
+        <v>-6.370192307692308</v>
       </c>
       <c r="G13">
-        <v>3.094629156</v>
+        <v>-5.051124744376274</v>
       </c>
       <c r="H13">
-        <v>3.078631719</v>
+        <v>-4.148434148434148</v>
       </c>
       <c r="I13">
-        <v>5.333333333</v>
+        <v>5.238095238095237</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,28 +780,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.2941176472</v>
+        <v>-0.5333333333333332</v>
       </c>
       <c r="C14">
-        <v>6.541935483200001</v>
+        <v>-16.11267605633803</v>
       </c>
       <c r="D14">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E14">
-        <v>4.042553191</v>
+        <v>-3.454545454545456</v>
       </c>
       <c r="F14">
-        <v>0.755494505</v>
+        <v>-8.629807692307693</v>
       </c>
       <c r="G14">
-        <v>2.83887468</v>
+        <v>-5.460122699386501</v>
       </c>
       <c r="H14">
-        <v>3.060861839</v>
+        <v>-4.182754182754182</v>
       </c>
       <c r="I14">
-        <v>2.5</v>
+        <v>-2.857142857142858</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C15">
-        <v>25.4967741938</v>
+        <v>25.26760563380281</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E15">
-        <v>4.680851064000001</v>
+        <v>-2.363636363636366</v>
       </c>
       <c r="F15">
-        <v>3.626373626</v>
+        <v>-3.605769230769231</v>
       </c>
       <c r="G15">
-        <v>4.936061381</v>
+        <v>-2.106339468302656</v>
       </c>
       <c r="H15">
-        <v>2.341181697</v>
+        <v>-5.572715572715571</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>14</v>
       </c>
       <c r="B16">
+        <v>-8</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>13.922580646</v>
-      </c>
       <c r="D16">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E16">
-        <v>6.382978723</v>
+        <v>0.5454545454545445</v>
       </c>
       <c r="F16">
-        <v>2.664835165</v>
+        <v>-5.28846153846154</v>
       </c>
       <c r="G16">
-        <v>4.62915601</v>
+        <v>-2.597137014314925</v>
       </c>
       <c r="H16">
-        <v>3.22523323</v>
+        <v>-3.865293865293864</v>
       </c>
       <c r="I16">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C17">
-        <v>9.7290322584</v>
+        <v>-9.154929577464788</v>
       </c>
       <c r="D17">
-        <v>7.3043478264</v>
+        <v>5.302325581395348</v>
       </c>
       <c r="E17">
-        <v>6.170212766</v>
+        <v>0.1818181818181808</v>
       </c>
       <c r="F17">
-        <v>1.428571429</v>
+        <v>-7.451923076923077</v>
       </c>
       <c r="G17">
-        <v>6.982097187000001</v>
+        <v>1.165644171779145</v>
       </c>
       <c r="H17">
-        <v>0.217681031</v>
+        <v>-9.673959673959674</v>
       </c>
       <c r="I17">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C18">
-        <v>13.7548387106</v>
+        <v>-0.3661971830985911</v>
       </c>
       <c r="D18">
-        <v>7.565217391199999</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="E18">
-        <v>6.170212766</v>
+        <v>0.1818181818181808</v>
       </c>
       <c r="F18">
-        <v>1.263736264</v>
+        <v>-7.740384615384617</v>
       </c>
       <c r="G18">
-        <v>5.191815857</v>
+        <v>-1.69734151329243</v>
       </c>
       <c r="H18">
-        <v>1.203909374</v>
+        <v>-7.769197769197769</v>
       </c>
       <c r="I18">
-        <v>4.666666667</v>
+        <v>3.33333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C19">
-        <v>14.4258064522</v>
+        <v>1.098591549295773</v>
       </c>
       <c r="D19">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E19">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F19">
-        <v>0.865384615</v>
+        <v>-8.437500000000002</v>
       </c>
       <c r="G19">
-        <v>2.608695652</v>
+        <v>-5.828220858895703</v>
       </c>
       <c r="H19">
-        <v>1.088405153</v>
+        <v>-7.992277992277992</v>
       </c>
       <c r="I19">
-        <v>2.166666667</v>
+        <v>-3.809523809523809</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C20">
-        <v>4.5290322584</v>
+        <v>-20.50704225352113</v>
       </c>
       <c r="D20">
-        <v>2.3478260868</v>
+        <v>-5.30232558139535</v>
       </c>
       <c r="E20">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F20">
-        <v>0.8241758239999999</v>
+        <v>-8.509615384615385</v>
       </c>
       <c r="G20">
-        <v>0.562659847</v>
+        <v>-9.100204498977503</v>
       </c>
       <c r="H20">
-        <v>1.088405153</v>
+        <v>-7.992277992277992</v>
       </c>
       <c r="I20">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.823529412</v>
+        <v>-1.6</v>
       </c>
       <c r="C21">
-        <v>18.4516129044</v>
+        <v>9.887323943661976</v>
       </c>
       <c r="D21">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E21">
-        <v>7.234042553</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="F21">
-        <v>1.703296703</v>
+        <v>-6.971153846153847</v>
       </c>
       <c r="G21">
-        <v>7.135549872</v>
+        <v>1.411042944785281</v>
       </c>
       <c r="H21">
-        <v>2.190137717</v>
+        <v>-5.864435864435863</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>-7.142857142857144</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C22">
-        <v>4.025806452199999</v>
+        <v>-21.6056338028169</v>
       </c>
       <c r="D22">
-        <v>4.173913044</v>
+        <v>-1.395348837209305</v>
       </c>
       <c r="E22">
-        <v>1.276595745</v>
+        <v>-8.181818181818183</v>
       </c>
       <c r="F22">
-        <v>-0.013736264</v>
+        <v>-9.97596153846154</v>
       </c>
       <c r="G22">
-        <v>0.485933504</v>
+        <v>-9.222903885480569</v>
       </c>
       <c r="H22">
-        <v>0.795202132</v>
+        <v>-8.558558558558557</v>
       </c>
       <c r="I22">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C23">
-        <v>12.2451612894</v>
+        <v>-3.661971830985916</v>
       </c>
       <c r="D23">
-        <v>7.565217391199999</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="E23">
-        <v>3.617021277</v>
+        <v>-4.181818181818183</v>
       </c>
       <c r="F23">
-        <v>1.771978022</v>
+        <v>-6.85096153846154</v>
       </c>
       <c r="G23">
-        <v>4.168797954</v>
+        <v>-3.33333333333333</v>
       </c>
       <c r="H23">
-        <v>1.443802754</v>
+        <v>-7.305877305877305</v>
       </c>
       <c r="I23">
-        <v>3.166666667</v>
+        <v>-0.9523809523809534</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C24">
-        <v>18.9548387106</v>
+        <v>10.98591549295775</v>
       </c>
       <c r="D24">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E24">
-        <v>5.957446809</v>
+        <v>-0.181818181818183</v>
       </c>
       <c r="F24">
-        <v>5.824175823999999</v>
+        <v>0.2403846153846145</v>
       </c>
       <c r="G24">
-        <v>5.421994885</v>
+        <v>-1.329243353783227</v>
       </c>
       <c r="H24">
-        <v>0.248778321</v>
+        <v>-9.613899613899612</v>
       </c>
       <c r="I24">
-        <v>1.5</v>
+        <v>-5.714285714285716</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C25">
-        <v>11.4064516124</v>
+        <v>-5.492957746478872</v>
       </c>
       <c r="D25">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E25">
-        <v>3.191489362</v>
+        <v>-4.909090909090911</v>
       </c>
       <c r="F25">
-        <v>1.071428571</v>
+        <v>-8.076923076923078</v>
       </c>
       <c r="G25">
-        <v>4.066496164</v>
+        <v>-3.496932515337419</v>
       </c>
       <c r="H25">
-        <v>1.052865393</v>
+        <v>-8.060918060918059</v>
       </c>
       <c r="I25">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C26">
-        <v>14.5935483876</v>
+        <v>1.464788732394364</v>
       </c>
       <c r="D26">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E26">
-        <v>1.489361702</v>
+        <v>-7.81818181818182</v>
       </c>
       <c r="F26">
-        <v>5.480769231</v>
+        <v>-0.360576923076924</v>
       </c>
       <c r="G26">
-        <v>1.406649616</v>
+        <v>-7.750511247443761</v>
       </c>
       <c r="H26">
-        <v>1.381608174</v>
+        <v>-7.425997425997425</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C27">
-        <v>22.9806451602</v>
+        <v>19.77464788732395</v>
       </c>
       <c r="D27">
-        <v>7.565217391199999</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="E27">
-        <v>7.872340425999999</v>
+        <v>3.090909090909089</v>
       </c>
       <c r="F27">
-        <v>6.785714285999999</v>
+        <v>1.923076923076923</v>
       </c>
       <c r="G27">
-        <v>6.41943734</v>
+        <v>0.2658486707566499</v>
       </c>
       <c r="H27">
-        <v>0.639715682</v>
+        <v>-8.858858858858857</v>
       </c>
       <c r="I27">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C28">
-        <v>8.554838710599999</v>
+        <v>-11.71830985915493</v>
       </c>
       <c r="D28">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E28">
-        <v>2.978723404</v>
+        <v>-5.272727272727274</v>
       </c>
       <c r="F28">
-        <v>0.782967033</v>
+        <v>-8.58173076923077</v>
       </c>
       <c r="G28">
-        <v>1.969309463</v>
+        <v>-6.850715746421265</v>
       </c>
       <c r="H28">
-        <v>2.643269658</v>
+        <v>-4.989274989274989</v>
       </c>
       <c r="I28">
-        <v>2.5</v>
+        <v>-2.857142857142858</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C29">
-        <v>11.0709677416</v>
+        <v>-6.22535211267606</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E29">
-        <v>2.765957447</v>
+        <v>-5.636363636363637</v>
       </c>
       <c r="F29">
-        <v>1.153846154</v>
+        <v>-7.932692307692308</v>
       </c>
       <c r="G29">
-        <v>2.608695652</v>
+        <v>-5.828220858895703</v>
       </c>
       <c r="H29">
-        <v>0.177698801</v>
+        <v>-9.75117975117975</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>-7.142857142857144</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C30">
-        <v>11.9096774186</v>
+        <v>-4.394366197183098</v>
       </c>
       <c r="D30">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E30">
-        <v>4.893617021</v>
+        <v>-2.000000000000002</v>
       </c>
       <c r="F30">
-        <v>1.098901099</v>
+        <v>-8.028846153846153</v>
       </c>
       <c r="G30">
-        <v>4.194373402</v>
+        <v>-3.292433537832307</v>
       </c>
       <c r="H30">
-        <v>2.003553976</v>
+        <v>-6.224796224796223</v>
       </c>
       <c r="I30">
-        <v>1.833333333</v>
+        <v>-4.761904761904763</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C31">
-        <v>23.483870969</v>
+        <v>20.87323943661972</v>
       </c>
       <c r="D31">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E31">
-        <v>6.808510638</v>
+        <v>1.272727272727272</v>
       </c>
       <c r="F31">
-        <v>3.585164835</v>
+        <v>-3.677884615384616</v>
       </c>
       <c r="G31">
-        <v>4.808184143</v>
+        <v>-2.310838445807768</v>
       </c>
       <c r="H31">
-        <v>0.826299422</v>
+        <v>-8.498498498498497</v>
       </c>
       <c r="I31">
-        <v>1.666666667</v>
+        <v>-5.238095238095239</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C32">
-        <v>14.2580645168</v>
+        <v>0.7323943661971821</v>
       </c>
       <c r="D32">
-        <v>10.4347826088</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>8.29787234</v>
+        <v>3.818181818181816</v>
       </c>
       <c r="F32">
-        <v>1.565934066</v>
+        <v>-7.211538461538463</v>
       </c>
       <c r="G32">
-        <v>12.506393862</v>
+        <v>10</v>
       </c>
       <c r="H32">
-        <v>1.070635273</v>
+        <v>-8.026598026598025</v>
       </c>
       <c r="I32">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.1176470592</v>
+        <v>5.866666666666667</v>
       </c>
       <c r="C33">
-        <v>18.116129031</v>
+        <v>9.154929577464793</v>
       </c>
       <c r="D33">
-        <v>7.826086956000001</v>
+        <v>6.418604651162791</v>
       </c>
       <c r="E33">
-        <v>5.531914894</v>
+        <v>-0.9090909090909105</v>
       </c>
       <c r="F33">
-        <v>0.178571429</v>
+        <v>-9.639423076923078</v>
       </c>
       <c r="G33">
-        <v>2.199488491</v>
+        <v>-6.482617586912063</v>
       </c>
       <c r="H33">
-        <v>2.900932919</v>
+        <v>-4.491634491634491</v>
       </c>
       <c r="I33">
-        <v>3.666666667</v>
+        <v>0.4761904761904745</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.2941176472</v>
+        <v>-0.5333333333333332</v>
       </c>
       <c r="C34">
-        <v>17.7806451602</v>
+        <v>8.422535211267601</v>
       </c>
       <c r="D34">
-        <v>4.6956521736</v>
+        <v>-0.279069767441861</v>
       </c>
       <c r="E34">
-        <v>7.446808511</v>
+        <v>2.363636363636361</v>
       </c>
       <c r="F34">
-        <v>4.478021978</v>
+        <v>-2.115384615384616</v>
       </c>
       <c r="G34">
-        <v>4.219948849</v>
+        <v>-3.251533742331283</v>
       </c>
       <c r="H34">
-        <v>2.843180809</v>
+        <v>-4.603174603174603</v>
       </c>
       <c r="I34">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C35">
-        <v>8.554838710599999</v>
+        <v>-11.71830985915493</v>
       </c>
       <c r="D35">
-        <v>6.7826086956</v>
+        <v>4.186046511627906</v>
       </c>
       <c r="E35">
-        <v>3.829787234</v>
+        <v>-3.818181818181819</v>
       </c>
       <c r="F35">
-        <v>2.252747253</v>
+        <v>-6.009615384615385</v>
       </c>
       <c r="G35">
-        <v>4.296675192</v>
+        <v>-3.128834355828218</v>
       </c>
       <c r="H35">
-        <v>0.6885828519999999</v>
+        <v>-8.764478764478763</v>
       </c>
       <c r="I35">
-        <v>3.666666667</v>
+        <v>0.4761904761904745</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C36">
-        <v>8.8903225814</v>
+        <v>-10.98591549295775</v>
       </c>
       <c r="D36">
-        <v>4.6956521736</v>
+        <v>-0.279069767441861</v>
       </c>
       <c r="E36">
-        <v>1.70212766</v>
+        <v>-7.454545454545456</v>
       </c>
       <c r="F36">
-        <v>1.703296703</v>
+        <v>-6.971153846153847</v>
       </c>
       <c r="G36">
-        <v>1.278772379</v>
+        <v>-7.955010224948873</v>
       </c>
       <c r="H36">
-        <v>1.816970235</v>
+        <v>-6.585156585156584</v>
       </c>
       <c r="I36">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C37">
-        <v>10.7354838708</v>
+        <v>-6.957746478873242</v>
       </c>
       <c r="D37">
-        <v>3.913043478000001</v>
+        <v>-1.953488372093024</v>
       </c>
       <c r="E37">
-        <v>8.29787234</v>
+        <v>3.818181818181816</v>
       </c>
       <c r="F37">
-        <v>2.225274725</v>
+        <v>-6.057692307692308</v>
       </c>
       <c r="G37">
-        <v>4.42455243</v>
+        <v>-2.924335378323104</v>
       </c>
       <c r="H37">
-        <v>1.497112394</v>
+        <v>-7.202917202917202</v>
       </c>
       <c r="I37">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C38">
-        <v>22.3096774186</v>
+        <v>18.30985915492958</v>
       </c>
       <c r="D38">
-        <v>3.913043478000001</v>
+        <v>-1.953488372093024</v>
       </c>
       <c r="E38">
-        <v>4.680851064000001</v>
+        <v>-2.363636363636366</v>
       </c>
       <c r="F38">
-        <v>6.346153846</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="G38">
-        <v>4.194373402</v>
+        <v>-3.292433537832307</v>
       </c>
       <c r="H38">
-        <v>4.415815193</v>
+        <v>-1.565851565851564</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4.7058823528</v>
+        <v>2.666666666666666</v>
       </c>
       <c r="C39">
-        <v>13.5870967752</v>
+        <v>-0.7323943661971821</v>
       </c>
       <c r="D39">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E39">
-        <v>4.042553191</v>
+        <v>-3.454545454545456</v>
       </c>
       <c r="F39">
-        <v>1.35989011</v>
+        <v>-7.572115384615385</v>
       </c>
       <c r="G39">
-        <v>3.299232737</v>
+        <v>-4.723926380368095</v>
       </c>
       <c r="H39">
-        <v>0.564193692</v>
+        <v>-9.004719004719004</v>
       </c>
       <c r="I39">
-        <v>3.333333333</v>
+        <v>-0.4761904761904767</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C40">
-        <v>6.709677418599999</v>
+        <v>-15.74647887323944</v>
       </c>
       <c r="D40">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E40">
-        <v>3.191489362</v>
+        <v>-4.909090909090911</v>
       </c>
       <c r="F40">
-        <v>0.6868131869999999</v>
+        <v>-8.750000000000002</v>
       </c>
       <c r="G40">
-        <v>4.501278772</v>
+        <v>-2.80163599182004</v>
       </c>
       <c r="H40">
-        <v>2.074633496</v>
+        <v>-6.087516087516086</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.2941176472</v>
+        <v>-0.5333333333333332</v>
       </c>
       <c r="C41">
-        <v>25.3290322584</v>
+        <v>24.90140845070422</v>
       </c>
       <c r="D41">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E41">
-        <v>5.531914894</v>
+        <v>-0.9090909090909105</v>
       </c>
       <c r="F41">
-        <v>1.771978022</v>
+        <v>-6.85096153846154</v>
       </c>
       <c r="G41">
-        <v>1.764705882</v>
+        <v>-7.177914110429445</v>
       </c>
       <c r="H41">
-        <v>0.377609951</v>
+        <v>-9.365079365079364</v>
       </c>
       <c r="I41">
-        <v>5.666666666999999</v>
+        <v>6.190476190476191</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.3529411768</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="C42">
-        <v>15.9354838708</v>
+        <v>4.394366197183098</v>
       </c>
       <c r="D42">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E42">
-        <v>5.957446809</v>
+        <v>-0.181818181818183</v>
       </c>
       <c r="F42">
-        <v>1.978021978</v>
+        <v>-6.490384615384617</v>
       </c>
       <c r="G42">
-        <v>3.427109974</v>
+        <v>-4.519427402862983</v>
       </c>
       <c r="H42">
-        <v>1.257219014</v>
+        <v>-7.666237666237665</v>
       </c>
       <c r="I42">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C43">
-        <v>23.9870967752</v>
+        <v>21.97183098591549</v>
       </c>
       <c r="D43">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E43">
-        <v>3.191489362</v>
+        <v>-4.909090909090911</v>
       </c>
       <c r="F43">
-        <v>2.527472527</v>
+        <v>-5.528846153846154</v>
       </c>
       <c r="G43">
-        <v>4.654731458</v>
+        <v>-2.556237218813904</v>
       </c>
       <c r="H43">
-        <v>1.466015104</v>
+        <v>-7.262977262977262</v>
       </c>
       <c r="I43">
-        <v>2.5</v>
+        <v>-2.857142857142858</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4.2352941176</v>
+        <v>1.6</v>
       </c>
       <c r="C44">
-        <v>12.7483870956</v>
+        <v>-2.563380281690143</v>
       </c>
       <c r="D44">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E44">
-        <v>3.191489362</v>
+        <v>-4.909090909090911</v>
       </c>
       <c r="F44">
-        <v>0.549450549</v>
+        <v>-8.990384615384617</v>
       </c>
       <c r="G44">
-        <v>0.664961637</v>
+        <v>-8.936605316973413</v>
       </c>
       <c r="H44">
-        <v>2.909817859</v>
+        <v>-4.474474474474474</v>
       </c>
       <c r="I44">
-        <v>4.5</v>
+        <v>2.857142857142856</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C45">
-        <v>5.5354838708</v>
+        <v>-18.30985915492958</v>
       </c>
       <c r="D45">
-        <v>3.3913043484</v>
+        <v>-3.069767441860465</v>
       </c>
       <c r="E45">
-        <v>4.893617021</v>
+        <v>-2.000000000000002</v>
       </c>
       <c r="F45">
-        <v>0.549450549</v>
+        <v>-8.990384615384617</v>
       </c>
       <c r="G45">
-        <v>3.861892583</v>
+        <v>-3.824130879345602</v>
       </c>
       <c r="H45">
-        <v>5.211017326</v>
+        <v>-0.03003003003003046</v>
       </c>
       <c r="I45">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.3529411768</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="C46">
-        <v>13.2516129044</v>
+        <v>-1.464788732394364</v>
       </c>
       <c r="D46">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E46">
-        <v>7.021276596</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="F46">
-        <v>0.8379120880000001</v>
+        <v>-8.485576923076923</v>
       </c>
       <c r="G46">
-        <v>4.066496164</v>
+        <v>-3.496932515337419</v>
       </c>
       <c r="H46">
-        <v>0.848511773</v>
+        <v>-8.455598455598455</v>
       </c>
       <c r="I46">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C47">
-        <v>7.212903224800001</v>
+        <v>-14.64788732394367</v>
       </c>
       <c r="D47">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E47">
-        <v>4.255319149</v>
+        <v>-3.090909090909092</v>
       </c>
       <c r="F47">
-        <v>0.21978022</v>
+        <v>-9.567307692307693</v>
       </c>
       <c r="G47">
-        <v>4.194373402</v>
+        <v>-3.292433537832307</v>
       </c>
       <c r="H47">
-        <v>0.10217681</v>
+        <v>-9.897039897039896</v>
       </c>
       <c r="I47">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.3529411768</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="C48">
-        <v>16.7741935478</v>
+        <v>6.225352112676054</v>
       </c>
       <c r="D48">
-        <v>6.7826086956</v>
+        <v>4.186046511627906</v>
       </c>
       <c r="E48">
-        <v>4.042553191</v>
+        <v>-3.454545454545456</v>
       </c>
       <c r="F48">
-        <v>3.695054945</v>
+        <v>-3.485576923076924</v>
       </c>
       <c r="G48">
-        <v>3.529411765</v>
+        <v>-4.355828220858893</v>
       </c>
       <c r="H48">
-        <v>1.661483785</v>
+        <v>-6.885456885456884</v>
       </c>
       <c r="I48">
-        <v>6.166666667</v>
+        <v>7.619047619047619</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C49">
-        <v>24.9935483876</v>
+        <v>24.16901408450704</v>
       </c>
       <c r="D49">
-        <v>2.6086956516</v>
+        <v>-4.744186046511628</v>
       </c>
       <c r="E49">
-        <v>1.914893617</v>
+        <v>-7.090909090909092</v>
       </c>
       <c r="F49">
-        <v>4.931318681</v>
+        <v>-1.322115384615385</v>
       </c>
       <c r="G49">
-        <v>1.969309463</v>
+        <v>-6.850715746421265</v>
       </c>
       <c r="H49">
-        <v>2.563305198</v>
+        <v>-5.143715143715141</v>
       </c>
       <c r="I49">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1824,28 +1824,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C50">
-        <v>6.541935483200001</v>
+        <v>-16.11267605633803</v>
       </c>
       <c r="D50">
-        <v>4.5652173912</v>
+        <v>-0.5581395348837219</v>
       </c>
       <c r="E50">
-        <v>4.468085106</v>
+        <v>-2.727272727272729</v>
       </c>
       <c r="F50">
-        <v>0.6868131869999999</v>
+        <v>-8.750000000000002</v>
       </c>
       <c r="G50">
-        <v>4.757033248</v>
+        <v>-2.392638036809813</v>
       </c>
       <c r="H50">
-        <v>2.447800977</v>
+        <v>-5.366795366795366</v>
       </c>
       <c r="I50">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1853,28 +1853,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C51">
-        <v>10.4</v>
+        <v>-7.690140845070424</v>
       </c>
       <c r="D51">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E51">
-        <v>5.957446809</v>
+        <v>-0.181818181818183</v>
       </c>
       <c r="F51">
-        <v>1.414835165</v>
+        <v>-7.47596153846154</v>
       </c>
       <c r="G51">
-        <v>3.145780051</v>
+        <v>-4.969325153374231</v>
       </c>
       <c r="H51">
-        <v>5.872945358</v>
+        <v>1.24839124839125</v>
       </c>
       <c r="I51">
-        <v>2.166666667</v>
+        <v>-3.809523809523809</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1882,28 +1882,28 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C52">
-        <v>12.077419354</v>
+        <v>-4.028169014084508</v>
       </c>
       <c r="D52">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E52">
-        <v>1.70212766</v>
+        <v>-7.454545454545456</v>
       </c>
       <c r="F52">
-        <v>1.222527473</v>
+        <v>-7.812500000000001</v>
       </c>
       <c r="G52">
-        <v>2.071611253</v>
+        <v>-6.687116564417175</v>
       </c>
       <c r="H52">
-        <v>0.12883163</v>
+        <v>-9.845559845559844</v>
       </c>
       <c r="I52">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1911,28 +1911,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C53">
-        <v>24.322580646</v>
+        <v>22.70422535211268</v>
       </c>
       <c r="D53">
-        <v>3.913043478000001</v>
+        <v>-1.953488372093024</v>
       </c>
       <c r="E53">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F53">
-        <v>11.401098901</v>
+        <v>10</v>
       </c>
       <c r="G53">
-        <v>3.043478261</v>
+        <v>-5.13292433537832</v>
       </c>
       <c r="H53">
-        <v>1.421590404</v>
+        <v>-7.348777348777348</v>
       </c>
       <c r="I53">
-        <v>6.333333333</v>
+        <v>8.095238095238093</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1940,28 +1940,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C54">
-        <v>10.5677419354</v>
+        <v>-7.323943661971833</v>
       </c>
       <c r="D54">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E54">
-        <v>4.893617021</v>
+        <v>-2.000000000000002</v>
       </c>
       <c r="F54">
-        <v>1.153846154</v>
+        <v>-7.932692307692308</v>
       </c>
       <c r="G54">
-        <v>3.938618926</v>
+        <v>-3.701431492842533</v>
       </c>
       <c r="H54">
-        <v>1.448245224</v>
+        <v>-7.297297297297296</v>
       </c>
       <c r="I54">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1969,28 +1969,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C55">
-        <v>9.393548387599999</v>
+        <v>-9.88732394366197</v>
       </c>
       <c r="D55">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E55">
-        <v>7.021276596</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="F55">
-        <v>2.733516484</v>
+        <v>-5.168269230769232</v>
       </c>
       <c r="G55">
-        <v>5.421994885</v>
+        <v>-1.329243353783227</v>
       </c>
       <c r="H55">
-        <v>2.589960018</v>
+        <v>-5.092235092235092</v>
       </c>
       <c r="I55">
-        <v>3.666666667</v>
+        <v>0.4761904761904745</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -1998,28 +1998,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C56">
-        <v>9.393548387599999</v>
+        <v>-9.88732394366197</v>
       </c>
       <c r="D56">
-        <v>3.1304347824</v>
+        <v>-3.627906976744187</v>
       </c>
       <c r="E56">
-        <v>4.468085106</v>
+        <v>-2.727272727272729</v>
       </c>
       <c r="F56">
-        <v>1.222527473</v>
+        <v>-7.812500000000001</v>
       </c>
       <c r="G56">
-        <v>5.012787724</v>
+        <v>-1.983640081799589</v>
       </c>
       <c r="H56">
-        <v>1.865837406</v>
+        <v>-6.49077649077649</v>
       </c>
       <c r="I56">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2027,28 +2027,28 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C57">
-        <v>9.561290323</v>
+        <v>-9.52112676056338</v>
       </c>
       <c r="D57">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E57">
-        <v>2.127659574</v>
+        <v>-6.727272727272728</v>
       </c>
       <c r="F57">
-        <v>3.42032967</v>
+        <v>-3.966346153846154</v>
       </c>
       <c r="G57">
-        <v>1.534526854</v>
+        <v>-7.546012269938648</v>
       </c>
       <c r="H57">
-        <v>2.381163927</v>
+        <v>-5.495495495495495</v>
       </c>
       <c r="I57">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2056,28 +2056,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C58">
-        <v>9.393548387599999</v>
+        <v>-9.88732394366197</v>
       </c>
       <c r="D58">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E58">
-        <v>1.063829787</v>
+        <v>-8.545454545454547</v>
       </c>
       <c r="F58">
-        <v>0.4120879119999999</v>
+        <v>-9.230769230769232</v>
       </c>
       <c r="G58">
-        <v>0.332480818</v>
+        <v>-9.468302658486706</v>
       </c>
       <c r="H58">
-        <v>0.3154153710000001</v>
+        <v>-9.485199485199484</v>
       </c>
       <c r="I58">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2085,28 +2085,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C59">
-        <v>13.7548387106</v>
+        <v>-0.3661971830985911</v>
       </c>
       <c r="D59">
-        <v>7.3043478264</v>
+        <v>5.302325581395348</v>
       </c>
       <c r="E59">
-        <v>4.255319149</v>
+        <v>-3.090909090909092</v>
       </c>
       <c r="F59">
-        <v>1.428571429</v>
+        <v>-7.451923076923077</v>
       </c>
       <c r="G59">
-        <v>2.352941176</v>
+        <v>-6.23721881390593</v>
       </c>
       <c r="H59">
-        <v>1.941359396</v>
+        <v>-6.344916344916344</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2114,28 +2114,28 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C60">
-        <v>22.8129032248</v>
+        <v>19.40845070422536</v>
       </c>
       <c r="D60">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E60">
-        <v>11.914893617</v>
+        <v>10</v>
       </c>
       <c r="F60">
-        <v>-0.027472527</v>
+        <v>-10</v>
       </c>
       <c r="G60">
-        <v>10.537084399</v>
+        <v>6.850715746421274</v>
       </c>
       <c r="H60">
-        <v>10.404264771</v>
+        <v>10</v>
       </c>
       <c r="I60">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2143,28 +2143,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C61">
-        <v>14.0903225814</v>
+        <v>0.3661971830985911</v>
       </c>
       <c r="D61">
-        <v>7.565217391199999</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="E61">
-        <v>6.808510638</v>
+        <v>1.272727272727272</v>
       </c>
       <c r="F61">
-        <v>1.291208791</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="G61">
-        <v>4.680306905</v>
+        <v>-2.51533742331288</v>
       </c>
       <c r="H61">
-        <v>4.349178143</v>
+        <v>-1.694551694551694</v>
       </c>
       <c r="I61">
-        <v>2.666666667</v>
+        <v>-2.380952380952381</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2172,28 +2172,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C62">
-        <v>13.7548387106</v>
+        <v>-0.3661971830985911</v>
       </c>
       <c r="D62">
-        <v>3.3913043484</v>
+        <v>-3.069767441860465</v>
       </c>
       <c r="E62">
-        <v>4.680851064000001</v>
+        <v>-2.363636363636366</v>
       </c>
       <c r="F62">
-        <v>1.868131868</v>
+        <v>-6.682692307692308</v>
       </c>
       <c r="G62">
-        <v>2.685421995</v>
+        <v>-5.705521472392636</v>
       </c>
       <c r="H62">
-        <v>3.21190582</v>
+        <v>-3.89103389103389</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2201,28 +2201,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C63">
-        <v>6.877419354</v>
+        <v>-15.38028169014085</v>
       </c>
       <c r="D63">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E63">
-        <v>3.191489362</v>
+        <v>-4.909090909090911</v>
       </c>
       <c r="F63">
-        <v>0.453296703</v>
+        <v>-9.158653846153847</v>
       </c>
       <c r="G63">
-        <v>2.455242967</v>
+        <v>-6.073619631901838</v>
       </c>
       <c r="H63">
-        <v>1.012883163</v>
+        <v>-8.138138138138139</v>
       </c>
       <c r="I63">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2230,28 +2230,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C64">
-        <v>25.8322580646</v>
+        <v>26.00000000000001</v>
       </c>
       <c r="D64">
-        <v>4.6956521736</v>
+        <v>-0.279069767441861</v>
       </c>
       <c r="E64">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F64">
-        <v>3.543956044</v>
+        <v>-3.750000000000001</v>
       </c>
       <c r="G64">
-        <v>5.907928389</v>
+        <v>-0.5521472392638005</v>
       </c>
       <c r="H64">
-        <v>1.883607286</v>
+        <v>-6.456456456456455</v>
       </c>
       <c r="I64">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2259,28 +2259,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C65">
-        <v>7.883870968999999</v>
+        <v>-13.1830985915493</v>
       </c>
       <c r="D65">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E65">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F65">
-        <v>2.664835165</v>
+        <v>-5.28846153846154</v>
       </c>
       <c r="G65">
-        <v>5.549872123</v>
+        <v>-1.124744376278115</v>
       </c>
       <c r="H65">
-        <v>1.346068414</v>
+        <v>-7.494637494637493</v>
       </c>
       <c r="I65">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2288,28 +2288,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C66">
-        <v>8.722580645999999</v>
+        <v>-11.35211267605634</v>
       </c>
       <c r="D66">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E66">
-        <v>1.276595745</v>
+        <v>-8.181818181818183</v>
       </c>
       <c r="F66">
-        <v>0.453296703</v>
+        <v>-9.158653846153847</v>
       </c>
       <c r="G66">
-        <v>0.7416879799999999</v>
+        <v>-8.813905930470344</v>
       </c>
       <c r="H66">
-        <v>2.527765438</v>
+        <v>-5.212355212355211</v>
       </c>
       <c r="I66">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2317,28 +2317,28 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C67">
-        <v>8.554838710599999</v>
+        <v>-11.71830985915493</v>
       </c>
       <c r="D67">
-        <v>7.173913043999999</v>
+        <v>5.023255813953487</v>
       </c>
       <c r="E67">
-        <v>3.829787234</v>
+        <v>-3.818181818181819</v>
       </c>
       <c r="F67">
-        <v>0.274725275</v>
+        <v>-9.471153846153847</v>
       </c>
       <c r="G67">
-        <v>4.910485934</v>
+        <v>-2.147239263803677</v>
       </c>
       <c r="H67">
-        <v>0.750777432</v>
+        <v>-8.644358644358643</v>
       </c>
       <c r="I67">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2346,28 +2346,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C68">
-        <v>17.1096774186</v>
+        <v>6.957746478873236</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E68">
-        <v>5.957446809</v>
+        <v>-0.181818181818183</v>
       </c>
       <c r="F68">
-        <v>2.445054945</v>
+        <v>-5.673076923076924</v>
       </c>
       <c r="G68">
-        <v>5.115089513999999</v>
+        <v>-1.820040899795496</v>
       </c>
       <c r="H68">
-        <v>1.115059973</v>
+        <v>-7.940797940797939</v>
       </c>
       <c r="I68">
-        <v>1.333333333</v>
+        <v>-6.190476190476191</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2375,28 +2375,28 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C69">
-        <v>7.883870968999999</v>
+        <v>-13.1830985915493</v>
       </c>
       <c r="D69">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E69">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F69">
-        <v>0.989010989</v>
+        <v>-8.221153846153847</v>
       </c>
       <c r="G69">
-        <v>3.810741688</v>
+        <v>-3.905930470347645</v>
       </c>
       <c r="H69">
-        <v>1.634828965</v>
+        <v>-6.936936936936936</v>
       </c>
       <c r="I69">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2404,28 +2404,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C70">
-        <v>8.219354839799999</v>
+        <v>-12.45070422535211</v>
       </c>
       <c r="D70">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E70">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F70">
-        <v>1.978021978</v>
+        <v>-6.490384615384617</v>
       </c>
       <c r="G70">
-        <v>5.063938619</v>
+        <v>-1.901840490797542</v>
       </c>
       <c r="H70">
-        <v>2.647712128</v>
+        <v>-4.980694980694979</v>
       </c>
       <c r="I70">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2433,28 +2433,28 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C71">
-        <v>12.5806451602</v>
+        <v>-2.929577464788734</v>
       </c>
       <c r="D71">
-        <v>7.3043478264</v>
+        <v>5.302325581395348</v>
       </c>
       <c r="E71">
-        <v>6.808510638</v>
+        <v>1.272727272727272</v>
       </c>
       <c r="F71">
-        <v>2.802197802</v>
+        <v>-5.048076923076924</v>
       </c>
       <c r="G71">
-        <v>7.007672634</v>
+        <v>1.206543967280169</v>
       </c>
       <c r="H71">
-        <v>3.24300311</v>
+        <v>-3.83097383097383</v>
       </c>
       <c r="I71">
-        <v>1.333333333</v>
+        <v>-6.190476190476191</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2462,28 +2462,28 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4.2352941176</v>
+        <v>1.6</v>
       </c>
       <c r="C72">
-        <v>18.116129031</v>
+        <v>9.154929577464793</v>
       </c>
       <c r="D72">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E72">
-        <v>5.744680851</v>
+        <v>-0.5454545454545467</v>
       </c>
       <c r="F72">
-        <v>2.129120879</v>
+        <v>-6.22596153846154</v>
       </c>
       <c r="G72">
-        <v>4.092071611</v>
+        <v>-3.456032719836397</v>
       </c>
       <c r="H72">
-        <v>3.620613061</v>
+        <v>-3.1016731016731</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>-4.285714285714286</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2491,28 +2491,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C73">
-        <v>11.238709677</v>
+        <v>-5.859154929577462</v>
       </c>
       <c r="D73">
-        <v>7.826086956000001</v>
+        <v>6.418604651162791</v>
       </c>
       <c r="E73">
-        <v>1.063829787</v>
+        <v>-8.545454545454547</v>
       </c>
       <c r="F73">
-        <v>0.851648352</v>
+        <v>-8.461538461538463</v>
       </c>
       <c r="G73">
-        <v>2.608695652</v>
+        <v>-5.828220858895703</v>
       </c>
       <c r="H73">
-        <v>1.852509996</v>
+        <v>-6.516516516516515</v>
       </c>
       <c r="I73">
-        <v>1.333333333</v>
+        <v>-6.190476190476191</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2520,28 +2520,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C74">
-        <v>19.7935483876</v>
+        <v>12.8169014084507</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E74">
-        <v>10.425531915</v>
+        <v>7.454545454545451</v>
       </c>
       <c r="F74">
-        <v>1.153846154</v>
+        <v>-7.932692307692308</v>
       </c>
       <c r="G74">
-        <v>8.951406649999999</v>
+        <v>4.314928425357878</v>
       </c>
       <c r="H74">
-        <v>3.025322079</v>
+        <v>-4.251394251394251</v>
       </c>
       <c r="I74">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2549,28 +2549,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C75">
-        <v>17.1096774186</v>
+        <v>6.957746478873236</v>
       </c>
       <c r="D75">
-        <v>7.173913043999999</v>
+        <v>5.023255813953487</v>
       </c>
       <c r="E75">
-        <v>4.255319149</v>
+        <v>-3.090909090909092</v>
       </c>
       <c r="F75">
-        <v>1.153846154</v>
+        <v>-7.932692307692308</v>
       </c>
       <c r="G75">
-        <v>2.73657289</v>
+        <v>-5.62372188139059</v>
       </c>
       <c r="H75">
-        <v>0.493114171</v>
+        <v>-9.141999141999142</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>-7.142857142857144</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2578,28 +2578,28 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C76">
-        <v>11.4064516124</v>
+        <v>-5.492957746478872</v>
       </c>
       <c r="D76">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E76">
-        <v>8.085106382999999</v>
+        <v>3.454545454545452</v>
       </c>
       <c r="F76">
-        <v>1.593406593</v>
+        <v>-7.16346153846154</v>
       </c>
       <c r="G76">
-        <v>4.245524297</v>
+        <v>-3.210633946830264</v>
       </c>
       <c r="H76">
-        <v>0.617503332</v>
+        <v>-8.9017589017589</v>
       </c>
       <c r="I76">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2607,28 +2607,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C77">
-        <v>9.7290322584</v>
+        <v>-9.154929577464788</v>
       </c>
       <c r="D77">
-        <v>1.826086956</v>
+        <v>-6.418604651162791</v>
       </c>
       <c r="E77">
-        <v>2.765957447</v>
+        <v>-5.636363636363637</v>
       </c>
       <c r="F77">
-        <v>1.071428571</v>
+        <v>-8.076923076923078</v>
       </c>
       <c r="G77">
-        <v>3.222506394</v>
+        <v>-4.846625766871162</v>
       </c>
       <c r="H77">
-        <v>1.430475344</v>
+        <v>-7.331617331617331</v>
       </c>
       <c r="I77">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2636,28 +2636,28 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C78">
-        <v>16.7741935478</v>
+        <v>6.225352112676054</v>
       </c>
       <c r="D78">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E78">
-        <v>5.531914894</v>
+        <v>-0.9090909090909105</v>
       </c>
       <c r="F78">
-        <v>1.634615385</v>
+        <v>-7.091346153846154</v>
       </c>
       <c r="G78">
-        <v>3.427109974</v>
+        <v>-4.519427402862983</v>
       </c>
       <c r="H78">
-        <v>1.528209685</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="I78">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2665,28 +2665,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C79">
-        <v>22.6451612894</v>
+        <v>19.04225352112676</v>
       </c>
       <c r="D79">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E79">
-        <v>7.446808511</v>
+        <v>2.363636363636361</v>
       </c>
       <c r="F79">
-        <v>1.565934066</v>
+        <v>-7.211538461538463</v>
       </c>
       <c r="G79">
-        <v>3.708439898</v>
+        <v>-4.069529652351733</v>
       </c>
       <c r="H79">
-        <v>2.847623279</v>
+        <v>-4.594594594594593</v>
       </c>
       <c r="I79">
-        <v>2.5</v>
+        <v>-2.857142857142858</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2694,28 +2694,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C80">
-        <v>14.0903225814</v>
+        <v>0.3661971830985911</v>
       </c>
       <c r="D80">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E80">
-        <v>6.382978723</v>
+        <v>0.5454545454545445</v>
       </c>
       <c r="F80">
-        <v>2.28021978</v>
+        <v>-5.961538461538463</v>
       </c>
       <c r="G80">
-        <v>6.41943734</v>
+        <v>0.2658486707566499</v>
       </c>
       <c r="H80">
-        <v>5.091070635</v>
+        <v>-0.2616902616902617</v>
       </c>
       <c r="I80">
-        <v>1.666666667</v>
+        <v>-5.238095238095239</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2723,28 +2723,28 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>2.823529412</v>
+        <v>-1.6</v>
       </c>
       <c r="C81">
-        <v>13.2516129044</v>
+        <v>-1.464788732394364</v>
       </c>
       <c r="D81">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E81">
-        <v>8.085106382999999</v>
+        <v>3.454545454545452</v>
       </c>
       <c r="F81">
-        <v>2.93956044</v>
+        <v>-4.807692307692308</v>
       </c>
       <c r="G81">
-        <v>3.938618926</v>
+        <v>-3.701431492842533</v>
       </c>
       <c r="H81">
-        <v>2.909817859</v>
+        <v>-4.474474474474474</v>
       </c>
       <c r="I81">
-        <v>2.166666667</v>
+        <v>-3.809523809523809</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2752,28 +2752,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C82">
-        <v>15.4322580646</v>
+        <v>3.295774647887325</v>
       </c>
       <c r="D82">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E82">
-        <v>9.148936170000001</v>
+        <v>5.272727272727272</v>
       </c>
       <c r="F82">
-        <v>2.582417582</v>
+        <v>-5.432692307692308</v>
       </c>
       <c r="G82">
-        <v>4.910485934</v>
+        <v>-2.147239263803677</v>
       </c>
       <c r="H82">
-        <v>1.426032874</v>
+        <v>-7.340197340197339</v>
       </c>
       <c r="I82">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2781,28 +2781,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C83">
-        <v>17.1096774186</v>
+        <v>6.957746478873236</v>
       </c>
       <c r="D83">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E83">
-        <v>6.595744680999999</v>
+        <v>0.9090909090909083</v>
       </c>
       <c r="F83">
-        <v>4.725274725</v>
+        <v>-1.682692307692308</v>
       </c>
       <c r="G83">
-        <v>2.506393862</v>
+        <v>-5.991820040899793</v>
       </c>
       <c r="H83">
-        <v>1.150599733</v>
+        <v>-7.872157872157871</v>
       </c>
       <c r="I83">
-        <v>1.333333333</v>
+        <v>-6.190476190476191</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2810,28 +2810,28 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C84">
-        <v>13.083870969</v>
+        <v>-1.830985915492961</v>
       </c>
       <c r="D84">
-        <v>2.8695652176</v>
+        <v>-4.186046511627909</v>
       </c>
       <c r="E84">
-        <v>7.659574468</v>
+        <v>2.727272727272725</v>
       </c>
       <c r="F84">
-        <v>1.950549451</v>
+        <v>-6.53846153846154</v>
       </c>
       <c r="G84">
-        <v>4.603580563</v>
+        <v>-2.638036809815947</v>
       </c>
       <c r="H84">
-        <v>3.27854287</v>
+        <v>-3.762333762333761</v>
       </c>
       <c r="I84">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2839,28 +2839,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C85">
-        <v>14.4258064522</v>
+        <v>1.098591549295773</v>
       </c>
       <c r="D85">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E85">
-        <v>1.276595745</v>
+        <v>-8.181818181818183</v>
       </c>
       <c r="F85">
-        <v>1.222527473</v>
+        <v>-7.812500000000001</v>
       </c>
       <c r="G85">
-        <v>1.969309463</v>
+        <v>-6.850715746421265</v>
       </c>
       <c r="H85">
-        <v>1.750333185</v>
+        <v>-6.713856713856713</v>
       </c>
       <c r="I85">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2868,28 +2868,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C86">
-        <v>6.038709677</v>
+        <v>-17.2112676056338</v>
       </c>
       <c r="D86">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E86">
-        <v>0.85106383</v>
+        <v>-8.90909090909091</v>
       </c>
       <c r="F86">
-        <v>0.604395604</v>
+        <v>-8.89423076923077</v>
       </c>
       <c r="G86">
-        <v>3.017902813</v>
+        <v>-5.173824130879343</v>
       </c>
       <c r="H86">
-        <v>1.994669036</v>
+        <v>-6.241956241956242</v>
       </c>
       <c r="I86">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2897,28 +2897,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C87">
-        <v>9.225806452199999</v>
+        <v>-10.25352112676056</v>
       </c>
       <c r="D87">
-        <v>3.913043478000001</v>
+        <v>-1.953488372093024</v>
       </c>
       <c r="E87">
-        <v>2.127659574</v>
+        <v>-6.727272727272728</v>
       </c>
       <c r="F87">
-        <v>1.978021978</v>
+        <v>-6.490384615384617</v>
       </c>
       <c r="G87">
-        <v>4.705882353</v>
+        <v>-2.474437627811856</v>
       </c>
       <c r="H87">
-        <v>1.665926255</v>
+        <v>-6.876876876876876</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2926,28 +2926,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>2.823529412</v>
+        <v>-1.6</v>
       </c>
       <c r="C88">
-        <v>15.0967741938</v>
+        <v>2.563380281690143</v>
       </c>
       <c r="D88">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E88">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F88">
-        <v>1.565934066</v>
+        <v>-7.211538461538463</v>
       </c>
       <c r="G88">
-        <v>4.398976982000001</v>
+        <v>-2.965235173824128</v>
       </c>
       <c r="H88">
-        <v>2.061306086</v>
+        <v>-6.113256113256112</v>
       </c>
       <c r="I88">
-        <v>1.333333333</v>
+        <v>-6.190476190476191</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2955,28 +2955,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C89">
-        <v>6.2064516124</v>
+        <v>-16.84507042253521</v>
       </c>
       <c r="D89">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E89">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F89">
-        <v>0.32967033</v>
+        <v>-9.375000000000002</v>
       </c>
       <c r="G89">
-        <v>2.148337596</v>
+        <v>-6.564417177914108</v>
       </c>
       <c r="H89">
-        <v>0.9107063529999999</v>
+        <v>-8.335478335478335</v>
       </c>
       <c r="I89">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2984,28 +2984,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5.6470588232</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="C90">
-        <v>16.1032258062</v>
+        <v>4.76056338028169</v>
       </c>
       <c r="D90">
-        <v>6.7826086956</v>
+        <v>4.186046511627906</v>
       </c>
       <c r="E90">
-        <v>7.659574468</v>
+        <v>2.727272727272725</v>
       </c>
       <c r="F90">
-        <v>4.244505495</v>
+        <v>-2.524038461538463</v>
       </c>
       <c r="G90">
-        <v>5.370843990000001</v>
+        <v>-1.411042944785272</v>
       </c>
       <c r="H90">
-        <v>1.999111506</v>
+        <v>-6.233376233376232</v>
       </c>
       <c r="I90">
-        <v>6.166666667</v>
+        <v>7.619047619047619</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3013,28 +3013,28 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C91">
-        <v>11.9096774186</v>
+        <v>-4.394366197183098</v>
       </c>
       <c r="D91">
-        <v>4.6956521736</v>
+        <v>-0.279069767441861</v>
       </c>
       <c r="E91">
-        <v>6.808510638</v>
+        <v>1.272727272727272</v>
       </c>
       <c r="F91">
-        <v>1.703296703</v>
+        <v>-6.971153846153847</v>
       </c>
       <c r="G91">
-        <v>5.089514066</v>
+        <v>-1.86094069529652</v>
       </c>
       <c r="H91">
-        <v>0.319857841</v>
+        <v>-9.476619476619476</v>
       </c>
       <c r="I91">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3042,28 +3042,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C92">
-        <v>5.8709677416</v>
+        <v>-17.57746478873239</v>
       </c>
       <c r="D92">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E92">
-        <v>3.829787234</v>
+        <v>-3.818181818181819</v>
       </c>
       <c r="F92">
-        <v>0.288461538</v>
+        <v>-9.447115384615385</v>
       </c>
       <c r="G92">
-        <v>1.841432225</v>
+        <v>-7.05521472392638</v>
       </c>
       <c r="H92">
-        <v>2.243447357</v>
+        <v>-5.761475761475761</v>
       </c>
       <c r="I92">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3071,28 +3071,28 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C93">
-        <v>7.716129031</v>
+        <v>-13.54929577464789</v>
       </c>
       <c r="D93">
-        <v>4.173913044</v>
+        <v>-1.395348837209305</v>
       </c>
       <c r="E93">
-        <v>1.063829787</v>
+        <v>-8.545454545454547</v>
       </c>
       <c r="F93">
-        <v>0.370879121</v>
+        <v>-9.302884615384617</v>
       </c>
       <c r="G93">
-        <v>2.301790281</v>
+        <v>-6.319018404907972</v>
       </c>
       <c r="H93">
-        <v>2.230119947</v>
+        <v>-5.787215787215787</v>
       </c>
       <c r="I93">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3100,28 +3100,28 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C94">
-        <v>6.2064516124</v>
+        <v>-16.84507042253521</v>
       </c>
       <c r="D94">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E94">
-        <v>7.234042553</v>
+        <v>1.999999999999997</v>
       </c>
       <c r="F94">
-        <v>0.563186813</v>
+        <v>-8.966346153846153</v>
       </c>
       <c r="G94">
-        <v>7.186700767</v>
+        <v>1.492842535787324</v>
       </c>
       <c r="H94">
-        <v>4.522434474</v>
+        <v>-1.359931359931358</v>
       </c>
       <c r="I94">
-        <v>1.833333333</v>
+        <v>-4.761904761904763</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3129,28 +3129,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C95">
-        <v>9.393548387599999</v>
+        <v>-9.88732394366197</v>
       </c>
       <c r="D95">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E95">
-        <v>1.063829787</v>
+        <v>-8.545454545454547</v>
       </c>
       <c r="F95">
-        <v>0.7417582420000001</v>
+        <v>-8.653846153846153</v>
       </c>
       <c r="G95">
-        <v>1.815856777</v>
+        <v>-7.096114519427401</v>
       </c>
       <c r="H95">
-        <v>2.576632608</v>
+        <v>-5.117975117975117</v>
       </c>
       <c r="I95">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3158,28 +3158,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C96">
-        <v>13.5870967752</v>
+        <v>-0.7323943661971821</v>
       </c>
       <c r="D96">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E96">
-        <v>3.617021277</v>
+        <v>-4.181818181818183</v>
       </c>
       <c r="F96">
-        <v>1.291208791</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="G96">
-        <v>1.560102302</v>
+        <v>-7.505112474437626</v>
       </c>
       <c r="H96">
-        <v>0.635273212</v>
+        <v>-8.867438867438866</v>
       </c>
       <c r="I96">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3187,28 +3187,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C97">
-        <v>21.8064516124</v>
+        <v>17.2112676056338</v>
       </c>
       <c r="D97">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E97">
-        <v>3.191489362</v>
+        <v>-4.909090909090911</v>
       </c>
       <c r="F97">
-        <v>2.445054945</v>
+        <v>-5.673076923076924</v>
       </c>
       <c r="G97">
-        <v>3.759590793</v>
+        <v>-3.98773006134969</v>
       </c>
       <c r="H97">
-        <v>2.287872057</v>
+        <v>-5.675675675675675</v>
       </c>
       <c r="I97">
-        <v>2.5</v>
+        <v>-2.857142857142858</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3216,28 +3216,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C98">
-        <v>15.9354838708</v>
+        <v>4.394366197183098</v>
       </c>
       <c r="D98">
-        <v>4.173913044</v>
+        <v>-1.395348837209305</v>
       </c>
       <c r="E98">
-        <v>2.127659574</v>
+        <v>-6.727272727272728</v>
       </c>
       <c r="F98">
-        <v>2.664835165</v>
+        <v>-5.28846153846154</v>
       </c>
       <c r="G98">
-        <v>0.997442455</v>
+        <v>-8.404907975460119</v>
       </c>
       <c r="H98">
-        <v>0.5730786320000001</v>
+        <v>-8.987558987558987</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3245,28 +3245,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C99">
-        <v>17.6129032248</v>
+        <v>8.056338028169009</v>
       </c>
       <c r="D99">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E99">
-        <v>4.680851064000001</v>
+        <v>-2.363636363636366</v>
       </c>
       <c r="F99">
-        <v>1.524725275</v>
+        <v>-7.283653846153847</v>
       </c>
       <c r="G99">
-        <v>2.83887468</v>
+        <v>-5.460122699386501</v>
       </c>
       <c r="H99">
-        <v>1.203909374</v>
+        <v>-7.769197769197769</v>
       </c>
       <c r="I99">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3274,28 +3274,28 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>2.3529411768</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="C100">
-        <v>10.2322580646</v>
+        <v>-8.056338028169016</v>
       </c>
       <c r="D100">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E100">
-        <v>4.680851064000001</v>
+        <v>-2.363636363636366</v>
       </c>
       <c r="F100">
-        <v>4.244505495</v>
+        <v>-2.524038461538463</v>
       </c>
       <c r="G100">
-        <v>4.782608696</v>
+        <v>-2.351738241308792</v>
       </c>
       <c r="H100">
-        <v>0.359840071</v>
+        <v>-9.399399399399398</v>
       </c>
       <c r="I100">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3303,28 +3303,28 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C101">
-        <v>8.554838710599999</v>
+        <v>-11.71830985915493</v>
       </c>
       <c r="D101">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E101">
-        <v>6.808510638</v>
+        <v>1.272727272727272</v>
       </c>
       <c r="F101">
-        <v>1.222527473</v>
+        <v>-7.812500000000001</v>
       </c>
       <c r="G101">
-        <v>6.751918159</v>
+        <v>0.7975460122699429</v>
       </c>
       <c r="H101">
-        <v>1.279431364</v>
+        <v>-7.623337623337623</v>
       </c>
       <c r="I101">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3332,28 +3332,28 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C102">
-        <v>8.8903225814</v>
+        <v>-10.98591549295775</v>
       </c>
       <c r="D102">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E102">
-        <v>6.170212766</v>
+        <v>0.1818181818181808</v>
       </c>
       <c r="F102">
-        <v>1.153846154</v>
+        <v>-7.932692307692308</v>
       </c>
       <c r="G102">
-        <v>4.757033248</v>
+        <v>-2.392638036809813</v>
       </c>
       <c r="H102">
-        <v>2.318969347</v>
+        <v>-5.615615615615615</v>
       </c>
       <c r="I102">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3361,28 +3361,28 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C103">
-        <v>22.9806451602</v>
+        <v>19.77464788732395</v>
       </c>
       <c r="D103">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E103">
-        <v>7.446808511</v>
+        <v>2.363636363636361</v>
       </c>
       <c r="F103">
-        <v>3.804945055</v>
+        <v>-3.293269230769231</v>
       </c>
       <c r="G103">
-        <v>5.57544757</v>
+        <v>-1.083844580777091</v>
       </c>
       <c r="H103">
-        <v>5.242114616</v>
+        <v>0.03003003003003046</v>
       </c>
       <c r="I103">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3390,28 +3390,28 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C104">
-        <v>12.7483870956</v>
+        <v>-2.563380281690143</v>
       </c>
       <c r="D104">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E104">
-        <v>6.382978723</v>
+        <v>0.5454545454545445</v>
       </c>
       <c r="F104">
-        <v>1.222527473</v>
+        <v>-7.812500000000001</v>
       </c>
       <c r="G104">
-        <v>5.498721228</v>
+        <v>-1.206543967280158</v>
       </c>
       <c r="H104">
-        <v>0.608618392</v>
+        <v>-8.918918918918918</v>
       </c>
       <c r="I104">
-        <v>1.333333333</v>
+        <v>-6.190476190476191</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3419,28 +3419,28 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C105">
-        <v>6.709677418599999</v>
+        <v>-15.74647887323944</v>
       </c>
       <c r="D105">
-        <v>7.826086956000001</v>
+        <v>6.418604651162791</v>
       </c>
       <c r="E105">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F105">
-        <v>0.549450549</v>
+        <v>-8.990384615384617</v>
       </c>
       <c r="G105">
-        <v>5.447570332</v>
+        <v>-1.288343558282206</v>
       </c>
       <c r="H105">
-        <v>0.359840071</v>
+        <v>-9.399399399399398</v>
       </c>
       <c r="I105">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3448,28 +3448,28 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C106">
-        <v>19.961290323</v>
+        <v>13.1830985915493</v>
       </c>
       <c r="D106">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E106">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F106">
-        <v>1.222527473</v>
+        <v>-7.812500000000001</v>
       </c>
       <c r="G106">
-        <v>3.427109974</v>
+        <v>-4.519427402862983</v>
       </c>
       <c r="H106">
-        <v>0.844069303</v>
+        <v>-8.464178464178463</v>
       </c>
       <c r="I106">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3477,28 +3477,28 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C107">
-        <v>10.9032258062</v>
+        <v>-6.591549295774651</v>
       </c>
       <c r="D107">
-        <v>1.0434782604</v>
+        <v>-8.093023255813954</v>
       </c>
       <c r="E107">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F107">
-        <v>1.428571429</v>
+        <v>-7.451923076923077</v>
       </c>
       <c r="G107">
-        <v>1.253196931</v>
+        <v>-7.995910020449895</v>
       </c>
       <c r="H107">
-        <v>1.461572634</v>
+        <v>-7.27155727155727</v>
       </c>
       <c r="I107">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3506,28 +3506,28 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C108">
-        <v>10.4</v>
+        <v>-7.690140845070424</v>
       </c>
       <c r="D108">
-        <v>3.3913043484</v>
+        <v>-3.069767441860465</v>
       </c>
       <c r="E108">
-        <v>4.255319149</v>
+        <v>-3.090909090909092</v>
       </c>
       <c r="F108">
-        <v>2.046703297</v>
+        <v>-6.370192307692308</v>
       </c>
       <c r="G108">
-        <v>2.762148338</v>
+        <v>-5.582822085889568</v>
       </c>
       <c r="H108">
-        <v>1.545979565</v>
+        <v>-7.108537108537107</v>
       </c>
       <c r="I108">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3535,28 +3535,28 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C109">
-        <v>8.554838710599999</v>
+        <v>-11.71830985915493</v>
       </c>
       <c r="D109">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E109">
-        <v>8.085106382999999</v>
+        <v>3.454545454545452</v>
       </c>
       <c r="F109">
-        <v>1.043956044</v>
+        <v>-8.125000000000002</v>
       </c>
       <c r="G109">
-        <v>4.680306905</v>
+        <v>-2.51533742331288</v>
       </c>
       <c r="H109">
-        <v>1.119502443</v>
+        <v>-7.932217932217931</v>
       </c>
       <c r="I109">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3564,28 +3564,28 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C110">
-        <v>12.7483870956</v>
+        <v>-2.563380281690143</v>
       </c>
       <c r="D110">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E110">
-        <v>4.893617021</v>
+        <v>-2.000000000000002</v>
       </c>
       <c r="F110">
-        <v>1.634615385</v>
+        <v>-7.091346153846154</v>
       </c>
       <c r="G110">
-        <v>6.317135550000001</v>
+        <v>0.1022494887525593</v>
       </c>
       <c r="H110">
-        <v>1.661483785</v>
+        <v>-6.885456885456884</v>
       </c>
       <c r="I110">
-        <v>1.5</v>
+        <v>-5.714285714285716</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3593,28 +3593,28 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2.823529412</v>
+        <v>-1.6</v>
       </c>
       <c r="C111">
-        <v>9.0580645168</v>
+        <v>-10.61971830985916</v>
       </c>
       <c r="D111">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E111">
-        <v>5.531914894</v>
+        <v>-0.9090909090909105</v>
       </c>
       <c r="F111">
-        <v>2.39010989</v>
+        <v>-5.76923076923077</v>
       </c>
       <c r="G111">
-        <v>4.040920716</v>
+        <v>-3.537832310838442</v>
       </c>
       <c r="H111">
-        <v>1.563749445</v>
+        <v>-7.074217074217072</v>
       </c>
       <c r="I111">
-        <v>3.666666667</v>
+        <v>0.4761904761904745</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3622,28 +3622,28 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C112">
-        <v>7.380645160199999</v>
+        <v>-14.28169014084507</v>
       </c>
       <c r="D112">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E112">
-        <v>2.553191489</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="F112">
-        <v>0.508241758</v>
+        <v>-9.062500000000002</v>
       </c>
       <c r="G112">
-        <v>2.762148338</v>
+        <v>-5.582822085889568</v>
       </c>
       <c r="H112">
-        <v>0.670812972</v>
+        <v>-8.798798798798797</v>
       </c>
       <c r="I112">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3651,28 +3651,28 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C113">
-        <v>11.7419354832</v>
+        <v>-4.76056338028169</v>
       </c>
       <c r="D113">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E113">
-        <v>5.744680851</v>
+        <v>-0.5454545454545467</v>
       </c>
       <c r="F113">
-        <v>3.695054945</v>
+        <v>-3.485576923076924</v>
       </c>
       <c r="G113">
-        <v>6.649616368</v>
+        <v>0.6339468302658546</v>
       </c>
       <c r="H113">
-        <v>0.395379831</v>
+        <v>-9.33075933075933</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>-7.142857142857144</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3680,28 +3680,28 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C114">
-        <v>8.554838710599999</v>
+        <v>-11.71830985915493</v>
       </c>
       <c r="D114">
-        <v>4.6956521736</v>
+        <v>-0.279069767441861</v>
       </c>
       <c r="E114">
-        <v>1.276595745</v>
+        <v>-8.181818181818183</v>
       </c>
       <c r="F114">
-        <v>0.302197802</v>
+        <v>-9.423076923076923</v>
       </c>
       <c r="G114">
-        <v>0.358056266</v>
+        <v>-9.427402862985684</v>
       </c>
       <c r="H114">
-        <v>1.137272323</v>
+        <v>-7.897897897897897</v>
       </c>
       <c r="I114">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3709,28 +3709,28 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>4.2352941176</v>
+        <v>1.6</v>
       </c>
       <c r="C115">
-        <v>18.7870967752</v>
+        <v>10.61971830985916</v>
       </c>
       <c r="D115">
-        <v>7.3043478264</v>
+        <v>5.302325581395348</v>
       </c>
       <c r="E115">
-        <v>4.468085106</v>
+        <v>-2.727272727272729</v>
       </c>
       <c r="F115">
-        <v>1.909340659</v>
+        <v>-6.610576923076924</v>
       </c>
       <c r="G115">
-        <v>4.117647059</v>
+        <v>-3.415132924335376</v>
       </c>
       <c r="H115">
-        <v>4.935584185</v>
+        <v>-0.5619905619905596</v>
       </c>
       <c r="I115">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3738,28 +3738,28 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C116">
-        <v>11.5741935478</v>
+        <v>-5.12676056338028</v>
       </c>
       <c r="D116">
-        <v>2.6086956516</v>
+        <v>-4.744186046511628</v>
       </c>
       <c r="E116">
-        <v>0.638297872</v>
+        <v>-9.272727272727273</v>
       </c>
       <c r="F116">
-        <v>0.947802198</v>
+        <v>-8.293269230769232</v>
       </c>
       <c r="G116">
-        <v>2.890025575</v>
+        <v>-5.378323108384455</v>
       </c>
       <c r="H116">
-        <v>2.434473567</v>
+        <v>-5.392535392535391</v>
       </c>
       <c r="I116">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3767,28 +3767,28 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>2.3529411768</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="C117">
-        <v>18.6193548398</v>
+        <v>10.25352112676057</v>
       </c>
       <c r="D117">
-        <v>7.043478260400001</v>
+        <v>4.744186046511626</v>
       </c>
       <c r="E117">
-        <v>7.872340425999999</v>
+        <v>3.090909090909089</v>
       </c>
       <c r="F117">
-        <v>7.266483515999999</v>
+        <v>2.764423076923077</v>
       </c>
       <c r="G117">
-        <v>5.242966752</v>
+        <v>-1.615541922290384</v>
       </c>
       <c r="H117">
-        <v>2.403376277</v>
+        <v>-5.452595452595451</v>
       </c>
       <c r="I117">
-        <v>2.166666667</v>
+        <v>-3.809523809523809</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3796,28 +3796,28 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>3.2941176472</v>
+        <v>-0.5333333333333332</v>
       </c>
       <c r="C118">
-        <v>13.4193548398</v>
+        <v>-1.098591549295773</v>
       </c>
       <c r="D118">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E118">
-        <v>5.531914894</v>
+        <v>-0.9090909090909105</v>
       </c>
       <c r="F118">
-        <v>2.733516484</v>
+        <v>-5.168269230769232</v>
       </c>
       <c r="G118">
-        <v>1.867007673</v>
+        <v>-7.014314928425356</v>
       </c>
       <c r="H118">
-        <v>0.368725011</v>
+        <v>-9.382239382239382</v>
       </c>
       <c r="I118">
-        <v>2.666666667</v>
+        <v>-2.380952380952381</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3825,28 +3825,28 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C119">
-        <v>10.0645161292</v>
+        <v>-8.422535211267606</v>
       </c>
       <c r="D119">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E119">
-        <v>6.382978723</v>
+        <v>0.5454545454545445</v>
       </c>
       <c r="F119">
-        <v>0.6593406590000001</v>
+        <v>-8.798076923076923</v>
       </c>
       <c r="G119">
-        <v>3.938618926</v>
+        <v>-3.701431492842533</v>
       </c>
       <c r="H119">
-        <v>1.919147046</v>
+        <v>-6.387816387816388</v>
       </c>
       <c r="I119">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3854,28 +3854,28 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C120">
-        <v>6.038709677</v>
+        <v>-17.2112676056338</v>
       </c>
       <c r="D120">
-        <v>6.7826086956</v>
+        <v>4.186046511627906</v>
       </c>
       <c r="E120">
-        <v>5.106382979</v>
+        <v>-1.636363636363638</v>
       </c>
       <c r="F120">
-        <v>0.7417582420000001</v>
+        <v>-8.653846153846153</v>
       </c>
       <c r="G120">
-        <v>4.092071611</v>
+        <v>-3.456032719836397</v>
       </c>
       <c r="H120">
-        <v>5.393158595999999</v>
+        <v>0.3217503217503226</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>-7.142857142857144</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3883,28 +3883,28 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>3.2941176472</v>
+        <v>-0.5333333333333332</v>
       </c>
       <c r="C121">
-        <v>8.3870967752</v>
+        <v>-12.08450704225352</v>
       </c>
       <c r="D121">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E121">
-        <v>3.829787234</v>
+        <v>-3.818181818181819</v>
       </c>
       <c r="F121">
-        <v>0.865384615</v>
+        <v>-8.437500000000002</v>
       </c>
       <c r="G121">
-        <v>3.861892583</v>
+        <v>-3.824130879345602</v>
       </c>
       <c r="H121">
-        <v>2.932030209</v>
+        <v>-4.431574431574431</v>
       </c>
       <c r="I121">
-        <v>3.333333333</v>
+        <v>-0.4761904761904767</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3912,28 +3912,28 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C122">
-        <v>5.7032258062</v>
+        <v>-17.94366197183098</v>
       </c>
       <c r="D122">
-        <v>2.6086956516</v>
+        <v>-4.744186046511628</v>
       </c>
       <c r="E122">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F122">
-        <v>0.989010989</v>
+        <v>-8.221153846153847</v>
       </c>
       <c r="G122">
-        <v>3.273657289</v>
+        <v>-4.764826175869117</v>
       </c>
       <c r="H122">
-        <v>0.755219902</v>
+        <v>-8.635778635778635</v>
       </c>
       <c r="I122">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3941,28 +3941,28 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C123">
-        <v>11.0709677416</v>
+        <v>-6.22535211267606</v>
       </c>
       <c r="D123">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E123">
-        <v>4.680851064000001</v>
+        <v>-2.363636363636366</v>
       </c>
       <c r="F123">
-        <v>1.497252747</v>
+        <v>-7.33173076923077</v>
       </c>
       <c r="G123">
-        <v>3.631713555</v>
+        <v>-4.192229038854802</v>
       </c>
       <c r="H123">
-        <v>2.754331408</v>
+        <v>-4.774774774774774</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>-7.142857142857144</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3970,28 +3970,28 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>3.2941176472</v>
+        <v>-0.5333333333333332</v>
       </c>
       <c r="C124">
-        <v>22.9806451602</v>
+        <v>19.77464788732395</v>
       </c>
       <c r="D124">
-        <v>7.043478260400001</v>
+        <v>4.744186046511626</v>
       </c>
       <c r="E124">
-        <v>2.978723404</v>
+        <v>-5.272727272727274</v>
       </c>
       <c r="F124">
-        <v>2.417582418</v>
+        <v>-5.721153846153847</v>
       </c>
       <c r="G124">
-        <v>4.52685422</v>
+        <v>-2.760736196319016</v>
       </c>
       <c r="H124">
-        <v>2.256774767</v>
+        <v>-5.735735735735735</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>4.285714285714284</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -3999,28 +3999,28 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C125">
-        <v>7.716129031</v>
+        <v>-13.54929577464789</v>
       </c>
       <c r="D125">
-        <v>4.173913044</v>
+        <v>-1.395348837209305</v>
       </c>
       <c r="E125">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F125">
-        <v>0.5906593410000001</v>
+        <v>-8.918269230769232</v>
       </c>
       <c r="G125">
-        <v>1.764705882</v>
+        <v>-7.177914110429445</v>
       </c>
       <c r="H125">
-        <v>5.286539316</v>
+        <v>0.1158301158301178</v>
       </c>
       <c r="I125">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4028,28 +4028,28 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>2.3529411768</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="C126">
-        <v>9.225806452199999</v>
+        <v>-10.25352112676056</v>
       </c>
       <c r="D126">
-        <v>3.1304347824</v>
+        <v>-3.627906976744187</v>
       </c>
       <c r="E126">
-        <v>4.468085106</v>
+        <v>-2.727272727272729</v>
       </c>
       <c r="F126">
-        <v>0.9203296699999999</v>
+        <v>-8.341346153846153</v>
       </c>
       <c r="G126">
-        <v>4.040920716</v>
+        <v>-3.537832310838442</v>
       </c>
       <c r="H126">
-        <v>1.870279876</v>
+        <v>-6.48219648219648</v>
       </c>
       <c r="I126">
-        <v>1.5</v>
+        <v>-5.714285714285716</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4057,28 +4057,28 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>4.7058823528</v>
+        <v>2.666666666666666</v>
       </c>
       <c r="C127">
-        <v>9.561290323</v>
+        <v>-9.52112676056338</v>
       </c>
       <c r="D127">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E127">
-        <v>8.723404255</v>
+        <v>4.545454545454543</v>
       </c>
       <c r="F127">
-        <v>2.252747253</v>
+        <v>-6.009615384615385</v>
       </c>
       <c r="G127">
-        <v>3.759590793</v>
+        <v>-3.98773006134969</v>
       </c>
       <c r="H127">
-        <v>0.413149711</v>
+        <v>-9.296439296439296</v>
       </c>
       <c r="I127">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4086,28 +4086,28 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C128">
-        <v>6.3741935478</v>
+        <v>-16.47887323943662</v>
       </c>
       <c r="D128">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E128">
-        <v>1.276595745</v>
+        <v>-8.181818181818183</v>
       </c>
       <c r="F128">
-        <v>1.085164835</v>
+        <v>-8.052884615384617</v>
       </c>
       <c r="G128">
-        <v>0.7672634270000001</v>
+        <v>-8.773006134969323</v>
       </c>
       <c r="H128">
-        <v>1.497112394</v>
+        <v>-7.202917202917202</v>
       </c>
       <c r="I128">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4115,28 +4115,28 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C129">
-        <v>5.2</v>
+        <v>-19.04225352112676</v>
       </c>
       <c r="D129">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E129">
-        <v>3.617021277</v>
+        <v>-4.181818181818183</v>
       </c>
       <c r="F129">
-        <v>0.5357142859999999</v>
+        <v>-9.014423076923078</v>
       </c>
       <c r="G129">
-        <v>2.941176471</v>
+        <v>-5.296523517382409</v>
       </c>
       <c r="H129">
-        <v>1.297201244</v>
+        <v>-7.589017589017589</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>-4.285714285714286</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4144,28 +4144,28 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C130">
-        <v>12.077419354</v>
+        <v>-4.028169014084508</v>
       </c>
       <c r="D130">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E130">
-        <v>1.063829787</v>
+        <v>-8.545454545454547</v>
       </c>
       <c r="F130">
-        <v>0.975274725</v>
+        <v>-8.245192307692308</v>
       </c>
       <c r="G130">
-        <v>0.997442455</v>
+        <v>-8.404907975460119</v>
       </c>
       <c r="H130">
-        <v>1.710350955</v>
+        <v>-6.79107679107679</v>
       </c>
       <c r="I130">
-        <v>2.666666667</v>
+        <v>-2.380952380952381</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4173,28 +4173,28 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C131">
-        <v>18.116129031</v>
+        <v>9.154929577464793</v>
       </c>
       <c r="D131">
-        <v>6.7826086956</v>
+        <v>4.186046511627906</v>
       </c>
       <c r="E131">
-        <v>6.808510638</v>
+        <v>1.272727272727272</v>
       </c>
       <c r="F131">
-        <v>3.516483516</v>
+        <v>-3.798076923076924</v>
       </c>
       <c r="G131">
-        <v>5.959079284</v>
+        <v>-0.4703476482617552</v>
       </c>
       <c r="H131">
-        <v>0.8529542430000001</v>
+        <v>-8.447018447018447</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>-7.142857142857144</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4202,28 +4202,28 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C132">
-        <v>5.0322580646</v>
+        <v>-19.40845070422536</v>
       </c>
       <c r="D132">
-        <v>2.8695652176</v>
+        <v>-4.186046511627909</v>
       </c>
       <c r="E132">
-        <v>0.638297872</v>
+        <v>-9.272727272727273</v>
       </c>
       <c r="F132">
-        <v>0.274725275</v>
+        <v>-9.471153846153847</v>
       </c>
       <c r="G132">
-        <v>2.455242967</v>
+        <v>-6.073619631901838</v>
       </c>
       <c r="H132">
-        <v>0.848511773</v>
+        <v>-8.455598455598455</v>
       </c>
       <c r="I132">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4231,28 +4231,28 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>4.2352941176</v>
+        <v>1.6</v>
       </c>
       <c r="C133">
-        <v>13.4193548398</v>
+        <v>-1.098591549295773</v>
       </c>
       <c r="D133">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E133">
-        <v>5.531914894</v>
+        <v>-0.9090909090909105</v>
       </c>
       <c r="F133">
-        <v>5.302197802</v>
+        <v>-0.673076923076924</v>
       </c>
       <c r="G133">
-        <v>4.398976982000001</v>
+        <v>-2.965235173824128</v>
       </c>
       <c r="H133">
-        <v>0.906263883</v>
+        <v>-8.344058344058343</v>
       </c>
       <c r="I133">
-        <v>2.166666667</v>
+        <v>-3.809523809523809</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4260,28 +4260,28 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C134">
-        <v>12.5806451602</v>
+        <v>-2.929577464788734</v>
       </c>
       <c r="D134">
-        <v>1.826086956</v>
+        <v>-6.418604651162791</v>
       </c>
       <c r="E134">
-        <v>8.510638298</v>
+        <v>4.18181818181818</v>
       </c>
       <c r="F134">
-        <v>0.6456043960000001</v>
+        <v>-8.822115384615385</v>
       </c>
       <c r="G134">
-        <v>4.42455243</v>
+        <v>-2.924335378323104</v>
       </c>
       <c r="H134">
-        <v>0.897378943</v>
+        <v>-8.361218361218359</v>
       </c>
       <c r="I134">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4289,28 +4289,28 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C135">
-        <v>6.709677418599999</v>
+        <v>-15.74647887323944</v>
       </c>
       <c r="D135">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E135">
-        <v>4.893617021</v>
+        <v>-2.000000000000002</v>
       </c>
       <c r="F135">
-        <v>1.236263736</v>
+        <v>-7.78846153846154</v>
       </c>
       <c r="G135">
-        <v>3.503836317</v>
+        <v>-4.396728016359917</v>
       </c>
       <c r="H135">
-        <v>2.278987117</v>
+        <v>-5.692835692835692</v>
       </c>
       <c r="I135">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4318,28 +4318,28 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C136">
-        <v>22.9806451602</v>
+        <v>19.77464788732395</v>
       </c>
       <c r="D136">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E136">
-        <v>6.170212766</v>
+        <v>0.1818181818181808</v>
       </c>
       <c r="F136">
-        <v>6.579670330000001</v>
+        <v>1.5625</v>
       </c>
       <c r="G136">
-        <v>3.043478261</v>
+        <v>-5.13292433537832</v>
       </c>
       <c r="H136">
-        <v>2.385606397</v>
+        <v>-5.486915486915485</v>
       </c>
       <c r="I136">
-        <v>6.5</v>
+        <v>8.571428571428568</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4347,28 +4347,28 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C137">
-        <v>12.077419354</v>
+        <v>-4.028169014084508</v>
       </c>
       <c r="D137">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E137">
-        <v>4.680851064000001</v>
+        <v>-2.363636363636366</v>
       </c>
       <c r="F137">
-        <v>2.252747253</v>
+        <v>-6.009615384615385</v>
       </c>
       <c r="G137">
-        <v>4.578005115</v>
+        <v>-2.678936605316971</v>
       </c>
       <c r="H137">
-        <v>1.856952466</v>
+        <v>-6.507936507936507</v>
       </c>
       <c r="I137">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4376,28 +4376,28 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C138">
-        <v>16.1032258062</v>
+        <v>4.76056338028169</v>
       </c>
       <c r="D138">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E138">
-        <v>4.042553191</v>
+        <v>-3.454545454545456</v>
       </c>
       <c r="F138">
-        <v>2.252747253</v>
+        <v>-6.009615384615385</v>
       </c>
       <c r="G138">
-        <v>1.508951407</v>
+        <v>-7.58691206543967</v>
       </c>
       <c r="H138">
-        <v>3.33185251</v>
+        <v>-3.659373659373658</v>
       </c>
       <c r="I138">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4405,28 +4405,28 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C139">
-        <v>11.238709677</v>
+        <v>-5.859154929577462</v>
       </c>
       <c r="D139">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E139">
-        <v>5.106382979</v>
+        <v>-1.636363636363638</v>
       </c>
       <c r="F139">
-        <v>0.384615385</v>
+        <v>-9.278846153846153</v>
       </c>
       <c r="G139">
-        <v>2.890025575</v>
+        <v>-5.378323108384455</v>
       </c>
       <c r="H139">
-        <v>1.563749445</v>
+        <v>-7.074217074217072</v>
       </c>
       <c r="I139">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4434,28 +4434,28 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C140">
-        <v>8.3870967752</v>
+        <v>-12.08450704225352</v>
       </c>
       <c r="D140">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E140">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F140">
-        <v>0.8241758239999999</v>
+        <v>-8.509615384615385</v>
       </c>
       <c r="G140">
-        <v>1.99488491</v>
+        <v>-6.809815950920244</v>
       </c>
       <c r="H140">
-        <v>2.145713016</v>
+        <v>-5.95023595023595</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4463,28 +4463,28 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C141">
-        <v>13.4193548398</v>
+        <v>-1.098591549295773</v>
       </c>
       <c r="D141">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E141">
-        <v>3.617021277</v>
+        <v>-4.181818181818183</v>
       </c>
       <c r="F141">
-        <v>8.021978022000001</v>
+        <v>4.08653846153846</v>
       </c>
       <c r="G141">
-        <v>2.685421995</v>
+        <v>-5.705521472392636</v>
       </c>
       <c r="H141">
-        <v>2.705464238</v>
+        <v>-4.869154869154868</v>
       </c>
       <c r="I141">
-        <v>5.166666667</v>
+        <v>4.761904761904763</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4492,28 +4492,28 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>5.176470588</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="C142">
-        <v>12.7483870956</v>
+        <v>-2.563380281690143</v>
       </c>
       <c r="D142">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E142">
-        <v>6.382978723</v>
+        <v>0.5454545454545445</v>
       </c>
       <c r="F142">
-        <v>1.840659341</v>
+        <v>-6.730769230769232</v>
       </c>
       <c r="G142">
-        <v>6.163682864</v>
+        <v>-0.1431492842535764</v>
       </c>
       <c r="H142">
-        <v>3.140826299</v>
+        <v>-4.028314028314028</v>
       </c>
       <c r="I142">
-        <v>4.5</v>
+        <v>2.857142857142856</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4521,28 +4521,28 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C143">
-        <v>13.5870967752</v>
+        <v>-0.7323943661971821</v>
       </c>
       <c r="D143">
-        <v>5.2173913044</v>
+        <v>0.8372093023255802</v>
       </c>
       <c r="E143">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F143">
-        <v>1.456043956</v>
+        <v>-7.403846153846154</v>
       </c>
       <c r="G143">
-        <v>2.73657289</v>
+        <v>-5.62372188139059</v>
       </c>
       <c r="H143">
-        <v>4.735673034</v>
+        <v>-0.9480909480909472</v>
       </c>
       <c r="I143">
-        <v>4</v>
+        <v>1.428571428571428</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4550,28 +4550,28 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2.3529411768</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="C144">
-        <v>20.4645161292</v>
+        <v>14.28169014084507</v>
       </c>
       <c r="D144">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E144">
-        <v>2.553191489</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="F144">
-        <v>2.184065934</v>
+        <v>-6.129807692307693</v>
       </c>
       <c r="G144">
-        <v>1.943734015</v>
+        <v>-6.891615541922286</v>
       </c>
       <c r="H144">
-        <v>2.261217237</v>
+        <v>-5.727155727155725</v>
       </c>
       <c r="I144">
-        <v>5</v>
+        <v>4.285714285714284</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4579,28 +4579,28 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>2.823529412</v>
+        <v>-1.6</v>
       </c>
       <c r="C145">
-        <v>16.7741935478</v>
+        <v>6.225352112676054</v>
       </c>
       <c r="D145">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E145">
-        <v>4.255319149</v>
+        <v>-3.090909090909092</v>
       </c>
       <c r="F145">
-        <v>2.912087912</v>
+        <v>-4.855769230769232</v>
       </c>
       <c r="G145">
-        <v>4.015345269</v>
+        <v>-3.578732106339466</v>
       </c>
       <c r="H145">
-        <v>0.7863171920000001</v>
+        <v>-8.575718575718575</v>
       </c>
       <c r="I145">
-        <v>3.166666667</v>
+        <v>-0.9523809523809534</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4608,28 +4608,28 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C146">
-        <v>10.7354838708</v>
+        <v>-6.957746478873242</v>
       </c>
       <c r="D146">
-        <v>2.8695652176</v>
+        <v>-4.186046511627909</v>
       </c>
       <c r="E146">
-        <v>4.042553191</v>
+        <v>-3.454545454545456</v>
       </c>
       <c r="F146">
-        <v>0.6456043960000001</v>
+        <v>-8.822115384615385</v>
       </c>
       <c r="G146">
-        <v>3.657289003</v>
+        <v>-4.15132924335378</v>
       </c>
       <c r="H146">
-        <v>1.066192803</v>
+        <v>-8.035178035178035</v>
       </c>
       <c r="I146">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4637,28 +4637,28 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C147">
-        <v>13.083870969</v>
+        <v>-1.830985915492961</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E147">
-        <v>4.255319149</v>
+        <v>-3.090909090909092</v>
       </c>
       <c r="F147">
-        <v>2.527472527</v>
+        <v>-5.528846153846154</v>
       </c>
       <c r="G147">
-        <v>4.52685422</v>
+        <v>-2.760736196319016</v>
       </c>
       <c r="H147">
-        <v>1.799200355</v>
+        <v>-6.619476619476618</v>
       </c>
       <c r="I147">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4666,28 +4666,28 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C148">
-        <v>10.9032258062</v>
+        <v>-6.591549295774651</v>
       </c>
       <c r="D148">
-        <v>3.3913043484</v>
+        <v>-3.069767441860465</v>
       </c>
       <c r="E148">
-        <v>2.978723404</v>
+        <v>-5.272727272727274</v>
       </c>
       <c r="F148">
-        <v>1.634615385</v>
+        <v>-7.091346153846154</v>
       </c>
       <c r="G148">
-        <v>1.79028133</v>
+        <v>-7.137014314928423</v>
       </c>
       <c r="H148">
-        <v>3.35406486</v>
+        <v>-3.616473616473615</v>
       </c>
       <c r="I148">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4695,28 +4695,28 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C149">
-        <v>8.554838710599999</v>
+        <v>-11.71830985915493</v>
       </c>
       <c r="D149">
-        <v>3.913043478000001</v>
+        <v>-1.953488372093024</v>
       </c>
       <c r="E149">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F149">
-        <v>0.576923077</v>
+        <v>-8.942307692307693</v>
       </c>
       <c r="G149">
-        <v>1.457800512</v>
+        <v>-7.668711656441715</v>
       </c>
       <c r="H149">
-        <v>0.8085295419999999</v>
+        <v>-8.532818532818531</v>
       </c>
       <c r="I149">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4724,28 +4724,28 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C150">
-        <v>2.0129032248</v>
+        <v>-26</v>
       </c>
       <c r="D150">
-        <v>3.3913043484</v>
+        <v>-3.069767441860465</v>
       </c>
       <c r="E150">
-        <v>4.468085106</v>
+        <v>-2.727272727272729</v>
       </c>
       <c r="F150">
-        <v>0.398351648</v>
+        <v>-9.254807692307693</v>
       </c>
       <c r="G150">
-        <v>1.534526854</v>
+        <v>-7.546012269938648</v>
       </c>
       <c r="H150">
-        <v>1.128387383</v>
+        <v>-7.915057915057914</v>
       </c>
       <c r="I150">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4753,28 +4753,28 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2.3529411768</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="C151">
-        <v>10.7354838708</v>
+        <v>-6.957746478873242</v>
       </c>
       <c r="D151">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E151">
-        <v>7.659574468</v>
+        <v>2.727272727272725</v>
       </c>
       <c r="F151">
-        <v>0.8104395600000001</v>
+        <v>-8.533653846153847</v>
       </c>
       <c r="G151">
-        <v>4.578005115</v>
+        <v>-2.678936605316971</v>
       </c>
       <c r="H151">
-        <v>0.8218569520000001</v>
+        <v>-8.507078507078505</v>
       </c>
       <c r="I151">
-        <v>2</v>
+        <v>-4.285714285714286</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4782,28 +4782,28 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C152">
-        <v>12.5806451602</v>
+        <v>-2.929577464788734</v>
       </c>
       <c r="D152">
-        <v>3.1304347824</v>
+        <v>-3.627906976744187</v>
       </c>
       <c r="E152">
-        <v>1.276595745</v>
+        <v>-8.181818181818183</v>
       </c>
       <c r="F152">
-        <v>0.467032967</v>
+        <v>-9.134615384615385</v>
       </c>
       <c r="G152">
-        <v>1.04859335</v>
+        <v>-8.323108384458076</v>
       </c>
       <c r="H152">
-        <v>0.564193692</v>
+        <v>-9.004719004719004</v>
       </c>
       <c r="I152">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4811,28 +4811,28 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C153">
-        <v>11.238709677</v>
+        <v>-5.859154929577462</v>
       </c>
       <c r="D153">
-        <v>4.173913044</v>
+        <v>-1.395348837209305</v>
       </c>
       <c r="E153">
-        <v>1.276595745</v>
+        <v>-8.181818181818183</v>
       </c>
       <c r="F153">
-        <v>2.28021978</v>
+        <v>-5.961538461538463</v>
       </c>
       <c r="G153">
-        <v>1.483375959</v>
+        <v>-7.627811860940693</v>
       </c>
       <c r="H153">
-        <v>0.266548201</v>
+        <v>-9.579579579579578</v>
       </c>
       <c r="I153">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -4840,28 +4840,28 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C154">
-        <v>10.2322580646</v>
+        <v>-8.056338028169016</v>
       </c>
       <c r="D154">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E154">
-        <v>7.021276596</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="F154">
-        <v>1.071428571</v>
+        <v>-8.076923076923078</v>
       </c>
       <c r="G154">
-        <v>4.271099744</v>
+        <v>-3.16973415132924</v>
       </c>
       <c r="H154">
-        <v>0.6530430919999999</v>
+        <v>-8.833118833118832</v>
       </c>
       <c r="I154">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -4869,28 +4869,28 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C155">
-        <v>20.1290322584</v>
+        <v>13.54929577464789</v>
       </c>
       <c r="D155">
-        <v>6.7826086956</v>
+        <v>4.186046511627906</v>
       </c>
       <c r="E155">
-        <v>7.659574468</v>
+        <v>2.727272727272725</v>
       </c>
       <c r="F155">
-        <v>0.700549451</v>
+        <v>-8.72596153846154</v>
       </c>
       <c r="G155">
-        <v>3.734015345</v>
+        <v>-4.028629856850714</v>
       </c>
       <c r="H155">
-        <v>1.168369614</v>
+        <v>-7.837837837837837</v>
       </c>
       <c r="I155">
-        <v>4.833333333</v>
+        <v>3.809523809523809</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4898,28 +4898,28 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C156">
-        <v>7.5483870956</v>
+        <v>-13.91549295774648</v>
       </c>
       <c r="D156">
-        <v>4.6956521736</v>
+        <v>-0.279069767441861</v>
       </c>
       <c r="E156">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F156">
-        <v>1.071428571</v>
+        <v>-8.076923076923078</v>
       </c>
       <c r="G156">
-        <v>2.531969309</v>
+        <v>-5.95092024539877</v>
       </c>
       <c r="H156">
-        <v>0.395379831</v>
+        <v>-9.33075933075933</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4927,28 +4927,28 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C157">
-        <v>16.7741935478</v>
+        <v>6.225352112676054</v>
       </c>
       <c r="D157">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E157">
-        <v>4.468085106</v>
+        <v>-2.727272727272729</v>
       </c>
       <c r="F157">
-        <v>1.703296703</v>
+        <v>-6.971153846153847</v>
       </c>
       <c r="G157">
-        <v>2.890025575</v>
+        <v>-5.378323108384455</v>
       </c>
       <c r="H157">
-        <v>0.928476233</v>
+        <v>-8.301158301158299</v>
       </c>
       <c r="I157">
-        <v>2.666666667</v>
+        <v>-2.380952380952381</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4956,28 +4956,28 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>4.7058823528</v>
+        <v>2.666666666666666</v>
       </c>
       <c r="C158">
-        <v>14.2580645168</v>
+        <v>0.7323943661971821</v>
       </c>
       <c r="D158">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E158">
-        <v>4.468085106</v>
+        <v>-2.727272727272729</v>
       </c>
       <c r="F158">
-        <v>1.456043956</v>
+        <v>-7.403846153846154</v>
       </c>
       <c r="G158">
-        <v>4.52685422</v>
+        <v>-2.760736196319016</v>
       </c>
       <c r="H158">
-        <v>0.897378943</v>
+        <v>-8.361218361218359</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>-1.42857142857143</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -4985,28 +4985,28 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C159">
-        <v>22.8129032248</v>
+        <v>19.40845070422536</v>
       </c>
       <c r="D159">
-        <v>7.826086956000001</v>
+        <v>6.418604651162791</v>
       </c>
       <c r="E159">
-        <v>4.042553191</v>
+        <v>-3.454545454545456</v>
       </c>
       <c r="F159">
-        <v>1.016483516</v>
+        <v>-8.173076923076923</v>
       </c>
       <c r="G159">
-        <v>4.680306905</v>
+        <v>-2.51533742331288</v>
       </c>
       <c r="H159">
-        <v>1.048422923</v>
+        <v>-8.069498069498069</v>
       </c>
       <c r="I159">
-        <v>2.333333333</v>
+        <v>-3.333333333333335</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5014,28 +5014,28 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C160">
-        <v>16.438709677</v>
+        <v>5.492957746478872</v>
       </c>
       <c r="D160">
-        <v>6.7826086956</v>
+        <v>4.186046511627906</v>
       </c>
       <c r="E160">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F160">
-        <v>0.6593406590000001</v>
+        <v>-8.798076923076923</v>
       </c>
       <c r="G160">
-        <v>1.662404092</v>
+        <v>-7.341513292433537</v>
       </c>
       <c r="H160">
-        <v>3.034207019</v>
+        <v>-4.234234234234235</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5043,28 +5043,28 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C161">
-        <v>14.2580645168</v>
+        <v>0.7323943661971821</v>
       </c>
       <c r="D161">
-        <v>8.086956522000001</v>
+        <v>6.976744186046508</v>
       </c>
       <c r="E161">
-        <v>8.936170213</v>
+        <v>4.909090909090907</v>
       </c>
       <c r="F161">
-        <v>1.909340659</v>
+        <v>-6.610576923076924</v>
       </c>
       <c r="G161">
-        <v>4.654731458</v>
+        <v>-2.556237218813904</v>
       </c>
       <c r="H161">
-        <v>3.953798312</v>
+        <v>-2.458172458172458</v>
       </c>
       <c r="I161">
-        <v>1.833333333</v>
+        <v>-4.761904761904763</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5072,28 +5072,28 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C162">
-        <v>10.0645161292</v>
+        <v>-8.422535211267606</v>
       </c>
       <c r="D162">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E162">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F162">
-        <v>1.373626374</v>
+        <v>-7.548076923076924</v>
       </c>
       <c r="G162">
-        <v>2.455242967</v>
+        <v>-6.073619631901838</v>
       </c>
       <c r="H162">
-        <v>1.670368725</v>
+        <v>-6.868296868296867</v>
       </c>
       <c r="I162">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5101,28 +5101,28 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>3.2941176472</v>
+        <v>-0.5333333333333332</v>
       </c>
       <c r="C163">
-        <v>16.438709677</v>
+        <v>5.492957746478872</v>
       </c>
       <c r="D163">
-        <v>3.913043478000001</v>
+        <v>-1.953488372093024</v>
       </c>
       <c r="E163">
-        <v>5.531914894</v>
+        <v>-0.9090909090909105</v>
       </c>
       <c r="F163">
-        <v>2.39010989</v>
+        <v>-5.76923076923077</v>
       </c>
       <c r="G163">
-        <v>2.710997442</v>
+        <v>-5.664621676891612</v>
       </c>
       <c r="H163">
-        <v>2.705464238</v>
+        <v>-4.869154869154868</v>
       </c>
       <c r="I163">
-        <v>6.666666666999999</v>
+        <v>9.047619047619047</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5130,28 +5130,28 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C164">
-        <v>10.9032258062</v>
+        <v>-6.591549295774651</v>
       </c>
       <c r="D164">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E164">
-        <v>2.340425532</v>
+        <v>-6.363636363636365</v>
       </c>
       <c r="F164">
-        <v>1.373626374</v>
+        <v>-7.548076923076924</v>
       </c>
       <c r="G164">
-        <v>2.6342711</v>
+        <v>-5.787321063394682</v>
       </c>
       <c r="H164">
-        <v>0.626388272</v>
+        <v>-8.884598884598883</v>
       </c>
       <c r="I164">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5159,28 +5159,28 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C165">
-        <v>13.5870967752</v>
+        <v>-0.7323943661971821</v>
       </c>
       <c r="D165">
-        <v>2.6086956516</v>
+        <v>-4.744186046511628</v>
       </c>
       <c r="E165">
-        <v>7.021276596</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="F165">
-        <v>2.074175824</v>
+        <v>-6.322115384615385</v>
       </c>
       <c r="G165">
-        <v>3.861892583</v>
+        <v>-3.824130879345602</v>
       </c>
       <c r="H165">
-        <v>3.927143492</v>
+        <v>-2.509652509652508</v>
       </c>
       <c r="I165">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5188,28 +5188,28 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C166">
-        <v>7.716129031</v>
+        <v>-13.54929577464789</v>
       </c>
       <c r="D166">
-        <v>7.565217391199999</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="E166">
-        <v>8.510638298</v>
+        <v>4.18181818181818</v>
       </c>
       <c r="F166">
-        <v>0.521978022</v>
+        <v>-9.03846153846154</v>
       </c>
       <c r="G166">
-        <v>4.987212276</v>
+        <v>-2.024539877300608</v>
       </c>
       <c r="H166">
-        <v>1.261661484</v>
+        <v>-7.657657657657657</v>
       </c>
       <c r="I166">
-        <v>1.333333333</v>
+        <v>-6.190476190476191</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5217,28 +5217,28 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C167">
-        <v>12.2451612894</v>
+        <v>-3.661971830985916</v>
       </c>
       <c r="D167">
-        <v>6.521739130799999</v>
+        <v>3.627906976744184</v>
       </c>
       <c r="E167">
-        <v>5.106382979</v>
+        <v>-1.636363636363638</v>
       </c>
       <c r="F167">
-        <v>0.508241758</v>
+        <v>-9.062500000000002</v>
       </c>
       <c r="G167">
-        <v>6.905370843999999</v>
+        <v>1.042944785276079</v>
       </c>
       <c r="H167">
-        <v>0.04886716999999999</v>
+        <v>-9.999999999999998</v>
       </c>
       <c r="I167">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5246,28 +5246,28 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C168">
-        <v>18.6193548398</v>
+        <v>10.25352112676057</v>
       </c>
       <c r="D168">
-        <v>4.173913044</v>
+        <v>-1.395348837209305</v>
       </c>
       <c r="E168">
-        <v>4.042553191</v>
+        <v>-3.454545454545456</v>
       </c>
       <c r="F168">
-        <v>6.579670330000001</v>
+        <v>1.5625</v>
       </c>
       <c r="G168">
-        <v>4.040920716</v>
+        <v>-3.537832310838442</v>
       </c>
       <c r="H168">
-        <v>2.065748556</v>
+        <v>-6.104676104676105</v>
       </c>
       <c r="I168">
-        <v>4.166666667</v>
+        <v>1.904761904761902</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5275,28 +5275,28 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C169">
-        <v>14.2580645168</v>
+        <v>0.7323943661971821</v>
       </c>
       <c r="D169">
-        <v>3.913043478000001</v>
+        <v>-1.953488372093024</v>
       </c>
       <c r="E169">
-        <v>1.063829787</v>
+        <v>-8.545454545454547</v>
       </c>
       <c r="F169">
-        <v>2.953296703</v>
+        <v>-4.783653846153847</v>
       </c>
       <c r="G169">
-        <v>2.378516624</v>
+        <v>-6.196319018404905</v>
       </c>
       <c r="H169">
-        <v>1.994669036</v>
+        <v>-6.241956241956242</v>
       </c>
       <c r="I169">
-        <v>1.666666667</v>
+        <v>-5.238095238095239</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5304,28 +5304,28 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C170">
-        <v>13.083870969</v>
+        <v>-1.830985915492961</v>
       </c>
       <c r="D170">
-        <v>7.826086956000001</v>
+        <v>6.418604651162791</v>
       </c>
       <c r="E170">
-        <v>9.361702128000001</v>
+        <v>5.636363636363635</v>
       </c>
       <c r="F170">
-        <v>2.802197802</v>
+        <v>-5.048076923076924</v>
       </c>
       <c r="G170">
-        <v>8.056265985</v>
+        <v>2.883435582822091</v>
       </c>
       <c r="H170">
-        <v>1.097290093</v>
+        <v>-7.975117975117973</v>
       </c>
       <c r="I170">
-        <v>1.666666667</v>
+        <v>-5.238095238095239</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5333,28 +5333,28 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C171">
-        <v>9.896774193799999</v>
+        <v>-8.788732394366196</v>
       </c>
       <c r="D171">
-        <v>5.4782608692</v>
+        <v>1.395348837209299</v>
       </c>
       <c r="E171">
-        <v>4.893617021</v>
+        <v>-2.000000000000002</v>
       </c>
       <c r="F171">
-        <v>1.868131868</v>
+        <v>-6.682692307692308</v>
       </c>
       <c r="G171">
-        <v>2.404092072</v>
+        <v>-6.155419222903882</v>
       </c>
       <c r="H171">
-        <v>2.896490449</v>
+        <v>-4.500214500214499</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>-7.142857142857144</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5362,28 +5362,28 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>4.2352941176</v>
+        <v>1.6</v>
       </c>
       <c r="C172">
-        <v>21.3032258062</v>
+        <v>16.11267605633802</v>
       </c>
       <c r="D172">
-        <v>10.4347826088</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>3.617021277</v>
+        <v>-4.181818181818183</v>
       </c>
       <c r="F172">
-        <v>3.076923077</v>
+        <v>-4.567307692307693</v>
       </c>
       <c r="G172">
-        <v>6.956521739</v>
+        <v>1.124744376278122</v>
       </c>
       <c r="H172">
-        <v>2.856508219</v>
+        <v>-4.577434577434577</v>
       </c>
       <c r="I172">
-        <v>5.5</v>
+        <v>5.714285714285712</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5391,28 +5391,28 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C173">
-        <v>9.393548387599999</v>
+        <v>-9.88732394366197</v>
       </c>
       <c r="D173">
-        <v>7.565217391199999</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="E173">
-        <v>11.276595745</v>
+        <v>8.909090909090907</v>
       </c>
       <c r="F173">
-        <v>1.291208791</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="G173">
-        <v>7.314578005</v>
+        <v>1.697341513292436</v>
       </c>
       <c r="H173">
-        <v>3.927143492</v>
+        <v>-2.509652509652508</v>
       </c>
       <c r="I173">
-        <v>1.666666667</v>
+        <v>-5.238095238095239</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5420,28 +5420,28 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C174">
-        <v>6.709677418599999</v>
+        <v>-15.74647887323944</v>
       </c>
       <c r="D174">
-        <v>2.6086956516</v>
+        <v>-4.744186046511628</v>
       </c>
       <c r="E174">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F174">
-        <v>0.8241758239999999</v>
+        <v>-8.509615384615385</v>
       </c>
       <c r="G174">
-        <v>3.120204604</v>
+        <v>-5.010224948875253</v>
       </c>
       <c r="H174">
-        <v>3.953798312</v>
+        <v>-2.458172458172458</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5449,28 +5449,28 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C175">
-        <v>6.541935483200001</v>
+        <v>-16.11267605633803</v>
       </c>
       <c r="D175">
-        <v>4.6956521736</v>
+        <v>-0.279069767441861</v>
       </c>
       <c r="E175">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F175">
-        <v>0.467032967</v>
+        <v>-9.134615384615385</v>
       </c>
       <c r="G175">
-        <v>3.58056266</v>
+        <v>-4.274028629856847</v>
       </c>
       <c r="H175">
-        <v>1.861394936</v>
+        <v>-6.499356499356496</v>
       </c>
       <c r="I175">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5478,28 +5478,28 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C176">
-        <v>8.051612904399999</v>
+        <v>-12.8169014084507</v>
       </c>
       <c r="D176">
-        <v>4.173913044</v>
+        <v>-1.395348837209305</v>
       </c>
       <c r="E176">
-        <v>3.829787234</v>
+        <v>-3.818181818181819</v>
       </c>
       <c r="F176">
-        <v>0.343406593</v>
+        <v>-9.35096153846154</v>
       </c>
       <c r="G176">
-        <v>0.332480818</v>
+        <v>-9.468302658486706</v>
       </c>
       <c r="H176">
-        <v>1.794757885</v>
+        <v>-6.628056628056626</v>
       </c>
       <c r="I176">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5507,28 +5507,28 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C177">
-        <v>9.225806452199999</v>
+        <v>-10.25352112676056</v>
       </c>
       <c r="D177">
-        <v>4.173913044</v>
+        <v>-1.395348837209305</v>
       </c>
       <c r="E177">
-        <v>2.553191489</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="F177">
-        <v>0.796703297</v>
+        <v>-8.557692307692308</v>
       </c>
       <c r="G177">
-        <v>0.9207161129999999</v>
+        <v>-8.527607361963188</v>
       </c>
       <c r="H177">
-        <v>0.892936473</v>
+        <v>-8.369798369798369</v>
       </c>
       <c r="I177">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5536,28 +5536,28 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C178">
-        <v>10.7354838708</v>
+        <v>-6.957746478873242</v>
       </c>
       <c r="D178">
-        <v>4.173913044</v>
+        <v>-1.395348837209305</v>
       </c>
       <c r="E178">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F178">
-        <v>0.549450549</v>
+        <v>-8.990384615384617</v>
       </c>
       <c r="G178">
-        <v>1.79028133</v>
+        <v>-7.137014314928423</v>
       </c>
       <c r="H178">
-        <v>0.222123501</v>
+        <v>-9.665379665379664</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5565,28 +5565,28 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C179">
-        <v>15.0967741938</v>
+        <v>2.563380281690143</v>
       </c>
       <c r="D179">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E179">
-        <v>2.765957447</v>
+        <v>-5.636363636363637</v>
       </c>
       <c r="F179">
-        <v>3.777472527</v>
+        <v>-3.341346153846154</v>
       </c>
       <c r="G179">
-        <v>2.097186701</v>
+        <v>-6.646216768916153</v>
       </c>
       <c r="H179">
-        <v>1.217236784</v>
+        <v>-7.743457743457743</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5594,28 +5594,28 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C180">
-        <v>12.2451612894</v>
+        <v>-3.661971830985916</v>
       </c>
       <c r="D180">
-        <v>4.6956521736</v>
+        <v>-0.279069767441861</v>
       </c>
       <c r="E180">
-        <v>5.106382979</v>
+        <v>-1.636363636363638</v>
       </c>
       <c r="F180">
-        <v>2.362637363</v>
+        <v>-5.817307692307693</v>
       </c>
       <c r="G180">
-        <v>3.222506394</v>
+        <v>-4.846625766871162</v>
       </c>
       <c r="H180">
-        <v>1.843625056</v>
+        <v>-6.533676533676534</v>
       </c>
       <c r="I180">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5623,28 +5623,28 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>2.3529411768</v>
+        <v>-2.666666666666667</v>
       </c>
       <c r="C181">
-        <v>23.9870967752</v>
+        <v>21.97183098591549</v>
       </c>
       <c r="D181">
-        <v>6</v>
+        <v>2.511627906976743</v>
       </c>
       <c r="E181">
-        <v>4.255319149</v>
+        <v>-3.090909090909092</v>
       </c>
       <c r="F181">
-        <v>2.623626374</v>
+        <v>-5.360576923076924</v>
       </c>
       <c r="G181">
-        <v>6.496163683000001</v>
+        <v>0.3885480572597189</v>
       </c>
       <c r="H181">
-        <v>4.247001333</v>
+        <v>-1.89189189189189</v>
       </c>
       <c r="I181">
-        <v>5.333333333</v>
+        <v>5.238095238095237</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5652,28 +5652,28 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C182">
-        <v>20.6322580646</v>
+        <v>14.64788732394366</v>
       </c>
       <c r="D182">
-        <v>9.913043477999999</v>
+        <v>10.88372093023256</v>
       </c>
       <c r="E182">
-        <v>8.29787234</v>
+        <v>3.818181818181816</v>
       </c>
       <c r="F182">
-        <v>2.953296703</v>
+        <v>-4.783653846153847</v>
       </c>
       <c r="G182">
-        <v>4.961636829</v>
+        <v>-2.065439672801632</v>
       </c>
       <c r="H182">
-        <v>0.386494891</v>
+        <v>-9.347919347919348</v>
       </c>
       <c r="I182">
-        <v>3.666666667</v>
+        <v>0.4761904761904745</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5681,28 +5681,28 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C183">
-        <v>21.638709677</v>
+        <v>16.8450704225352</v>
       </c>
       <c r="D183">
-        <v>6.2608695648</v>
+        <v>3.069767441860463</v>
       </c>
       <c r="E183">
-        <v>5.319148935999999</v>
+        <v>-1.272727272727274</v>
       </c>
       <c r="F183">
-        <v>3.42032967</v>
+        <v>-3.966346153846154</v>
       </c>
       <c r="G183">
-        <v>7.237851662</v>
+        <v>1.57464212678937</v>
       </c>
       <c r="H183">
-        <v>4.802310084</v>
+        <v>-0.8193908193908184</v>
       </c>
       <c r="I183">
-        <v>6.166666667</v>
+        <v>7.619047619047619</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5710,28 +5710,28 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C184">
-        <v>6.541935483200001</v>
+        <v>-16.11267605633803</v>
       </c>
       <c r="D184">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E184">
-        <v>5.106382979</v>
+        <v>-1.636363636363638</v>
       </c>
       <c r="F184">
-        <v>0.027472527</v>
+        <v>-9.903846153846155</v>
       </c>
       <c r="G184">
-        <v>4.117647059</v>
+        <v>-3.415132924335376</v>
       </c>
       <c r="H184">
-        <v>1.146157263</v>
+        <v>-7.880737880737881</v>
       </c>
       <c r="I184">
-        <v>0.666666667</v>
+        <v>-8.095238095238095</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5739,28 +5739,28 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C185">
-        <v>8.8903225814</v>
+        <v>-10.98591549295775</v>
       </c>
       <c r="D185">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E185">
-        <v>2.553191489</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="F185">
-        <v>0.9065934069999999</v>
+        <v>-8.365384615384617</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>-9.999999999999998</v>
       </c>
       <c r="H185">
-        <v>0.981785873</v>
+        <v>-8.198198198198197</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5768,28 +5768,28 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.4705882352</v>
+        <v>-6.933333333333334</v>
       </c>
       <c r="C186">
-        <v>7.5483870956</v>
+        <v>-13.91549295774648</v>
       </c>
       <c r="D186">
-        <v>-0.7826086956</v>
+        <v>-12</v>
       </c>
       <c r="E186">
-        <v>2.553191489</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="F186">
-        <v>0.123626374</v>
+        <v>-9.735576923076923</v>
       </c>
       <c r="G186">
-        <v>2.455242967</v>
+        <v>-6.073619631901838</v>
       </c>
       <c r="H186">
-        <v>2.136828076</v>
+        <v>-5.967395967395968</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5797,28 +5797,28 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.8823529408</v>
+        <v>-3.733333333333333</v>
       </c>
       <c r="C187">
-        <v>9.896774193799999</v>
+        <v>-8.788732394366196</v>
       </c>
       <c r="D187">
-        <v>3.913043478000001</v>
+        <v>-1.953488372093024</v>
       </c>
       <c r="E187">
-        <v>5.531914894</v>
+        <v>-0.9090909090909105</v>
       </c>
       <c r="F187">
-        <v>2.417582418</v>
+        <v>-5.721153846153847</v>
       </c>
       <c r="G187">
-        <v>1.483375959</v>
+        <v>-7.627811860940693</v>
       </c>
       <c r="H187">
-        <v>3.944913372</v>
+        <v>-2.475332475332475</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>-4.285714285714286</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5826,28 +5826,28 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C188">
-        <v>9.7290322584</v>
+        <v>-9.154929577464788</v>
       </c>
       <c r="D188">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E188">
-        <v>8.29787234</v>
+        <v>3.818181818181816</v>
       </c>
       <c r="F188">
-        <v>0.851648352</v>
+        <v>-8.461538461538463</v>
       </c>
       <c r="G188">
-        <v>5.728900256</v>
+        <v>-0.8384458077709578</v>
       </c>
       <c r="H188">
-        <v>1.856952466</v>
+        <v>-6.507936507936507</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5855,28 +5855,28 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C189">
-        <v>9.393548387599999</v>
+        <v>-9.88732394366197</v>
       </c>
       <c r="D189">
-        <v>4.956521739599999</v>
+        <v>0.2790697674418583</v>
       </c>
       <c r="E189">
-        <v>3.404255319</v>
+        <v>-4.545454545454547</v>
       </c>
       <c r="F189">
-        <v>0.892857143</v>
+        <v>-8.389423076923078</v>
       </c>
       <c r="G189">
-        <v>3.427109974</v>
+        <v>-4.519427402862983</v>
       </c>
       <c r="H189">
-        <v>3.869391382</v>
+        <v>-2.62119262119262</v>
       </c>
       <c r="I189">
-        <v>1.166666667</v>
+        <v>-6.666666666666668</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5884,28 +5884,28 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C190">
-        <v>9.0580645168</v>
+        <v>-10.61971830985916</v>
       </c>
       <c r="D190">
-        <v>6.7826086956</v>
+        <v>4.186046511627906</v>
       </c>
       <c r="E190">
-        <v>1.70212766</v>
+        <v>-7.454545454545456</v>
       </c>
       <c r="F190">
-        <v>0.934065934</v>
+        <v>-8.317307692307693</v>
       </c>
       <c r="G190">
-        <v>1.79028133</v>
+        <v>-7.137014314928423</v>
       </c>
       <c r="H190">
-        <v>0.981785873</v>
+        <v>-8.198198198198197</v>
       </c>
       <c r="I190">
-        <v>0.166666667</v>
+        <v>-9.523809523809526</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5913,28 +5913,28 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.9411764704</v>
+        <v>-5.866666666666667</v>
       </c>
       <c r="C191">
-        <v>16.2709677416</v>
+        <v>5.12676056338028</v>
       </c>
       <c r="D191">
-        <v>3.6521739132</v>
+        <v>-2.511627906976746</v>
       </c>
       <c r="E191">
-        <v>5.744680851</v>
+        <v>-0.5454545454545467</v>
       </c>
       <c r="F191">
-        <v>1.538461538</v>
+        <v>-7.259615384615385</v>
       </c>
       <c r="G191">
-        <v>1.841432225</v>
+        <v>-7.05521472392638</v>
       </c>
       <c r="H191">
-        <v>2.758773878</v>
+        <v>-4.766194766194765</v>
       </c>
       <c r="I191">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5942,28 +5942,28 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>3.2941176472</v>
+        <v>-0.5333333333333332</v>
       </c>
       <c r="C192">
-        <v>20.8</v>
+        <v>15.01408450704225</v>
       </c>
       <c r="D192">
-        <v>7.565217391199999</v>
+        <v>5.86046511627907</v>
       </c>
       <c r="E192">
-        <v>7.446808511</v>
+        <v>2.363636363636361</v>
       </c>
       <c r="F192">
-        <v>4.18956044</v>
+        <v>-2.620192307692308</v>
       </c>
       <c r="G192">
-        <v>5.115089513999999</v>
+        <v>-1.820040899795496</v>
       </c>
       <c r="H192">
-        <v>3.149711239</v>
+        <v>-4.01115401115401</v>
       </c>
       <c r="I192">
-        <v>3.166666667</v>
+        <v>-0.9523809523809534</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -5971,28 +5971,28 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C193">
-        <v>22.8129032248</v>
+        <v>19.40845070422536</v>
       </c>
       <c r="D193">
-        <v>4.4347826088</v>
+        <v>-0.8372093023255829</v>
       </c>
       <c r="E193">
-        <v>3.829787234</v>
+        <v>-3.818181818181819</v>
       </c>
       <c r="F193">
-        <v>0.7417582420000001</v>
+        <v>-8.653846153846153</v>
       </c>
       <c r="G193">
-        <v>4.040920716</v>
+        <v>-3.537832310838442</v>
       </c>
       <c r="H193">
-        <v>0.857396713</v>
+        <v>-8.438438438438437</v>
       </c>
       <c r="I193">
-        <v>0.8333333330000001</v>
+        <v>-7.619047619047619</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6000,28 +6000,28 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C194">
-        <v>9.225806452199999</v>
+        <v>-10.25352112676056</v>
       </c>
       <c r="D194">
-        <v>3.1304347824</v>
+        <v>-3.627906976744187</v>
       </c>
       <c r="E194">
-        <v>2.553191489</v>
+        <v>-6.000000000000001</v>
       </c>
       <c r="F194">
-        <v>0.961538462</v>
+        <v>-8.26923076923077</v>
       </c>
       <c r="G194">
-        <v>1.89258312</v>
+        <v>-6.973415132924332</v>
       </c>
       <c r="H194">
-        <v>0.337627721</v>
+        <v>-9.442299442299442</v>
       </c>
       <c r="I194">
-        <v>0.5</v>
+        <v>-8.571428571428573</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6029,28 +6029,28 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3.7647058824</v>
+        <v>0.5333333333333332</v>
       </c>
       <c r="C195">
-        <v>22.1419354832</v>
+        <v>17.94366197183099</v>
       </c>
       <c r="D195">
-        <v>7.826086956000001</v>
+        <v>6.418604651162791</v>
       </c>
       <c r="E195">
-        <v>5.744680851</v>
+        <v>-0.5454545454545467</v>
       </c>
       <c r="F195">
-        <v>3.901098901</v>
+        <v>-3.125000000000001</v>
       </c>
       <c r="G195">
-        <v>3.964194373</v>
+        <v>-3.660531697341509</v>
       </c>
       <c r="H195">
-        <v>1.728120835</v>
+        <v>-6.756756756756755</v>
       </c>
       <c r="I195">
-        <v>6.166666667</v>
+        <v>7.619047619047619</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6058,28 +6058,28 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C196">
-        <v>6.709677418599999</v>
+        <v>-15.74647887323944</v>
       </c>
       <c r="D196">
-        <v>6.7826086956</v>
+        <v>4.186046511627906</v>
       </c>
       <c r="E196">
-        <v>5.106382979</v>
+        <v>-1.636363636363638</v>
       </c>
       <c r="F196">
-        <v>1.497252747</v>
+        <v>-7.33173076923077</v>
       </c>
       <c r="G196">
-        <v>5.115089513999999</v>
+        <v>-1.820040899795496</v>
       </c>
       <c r="H196">
-        <v>0.6885828519999999</v>
+        <v>-8.764478764478763</v>
       </c>
       <c r="I196">
-        <v>0.333333333</v>
+        <v>-9.047619047619049</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6087,28 +6087,28 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.4117647056</v>
+        <v>-4.8</v>
       </c>
       <c r="C197">
-        <v>7.5483870956</v>
+        <v>-13.91549295774648</v>
       </c>
       <c r="D197">
-        <v>5.7391304352</v>
+        <v>1.953488372093021</v>
       </c>
       <c r="E197">
-        <v>1.914893617</v>
+        <v>-7.090909090909092</v>
       </c>
       <c r="F197">
-        <v>0.947802198</v>
+        <v>-8.293269230769232</v>
       </c>
       <c r="G197">
-        <v>3.120204604</v>
+        <v>-5.010224948875253</v>
       </c>
       <c r="H197">
-        <v>2.101288316</v>
+        <v>-6.036036036036034</v>
       </c>
       <c r="I197">
-        <v>2.833333333</v>
+        <v>-1.904761904761907</v>
       </c>
     </row>
   </sheetData>
